--- a/EVA.xlsx
+++ b/EVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\source\repos\ProjMan412\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A1CC1-5EB4-4269-9887-FD319187DF78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06100BC3-4CFB-4068-A89A-1C53F010AD71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="106">
   <si>
     <t>Task</t>
   </si>
@@ -353,6 +353,18 @@
   </si>
   <si>
     <t>Period 12</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>AC</t>
   </si>
 </sst>
 </file>
@@ -2739,10 +2751,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3040,14 +3048,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>48200.216800000002</v>
+      </c>
+      <c r="D3">
+        <v>45144</v>
+      </c>
+      <c r="E3">
+        <v>55827.92</v>
+      </c>
+      <c r="F3">
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="H3">
+        <v>3779.6399000000001</v>
+      </c>
+      <c r="I3">
+        <v>59607.5599</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>91169.028000000006</v>
+      </c>
+      <c r="D4">
+        <v>73387.040000000008</v>
+      </c>
+      <c r="E4">
+        <v>92812.51</v>
+      </c>
+      <c r="F4">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="H4">
+        <v>22488.918699999998</v>
+      </c>
+      <c r="I4">
+        <v>115301.42869999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>135916.1568</v>
+      </c>
+      <c r="D5">
+        <v>121241.28</v>
+      </c>
+      <c r="E5">
+        <v>153267.05600000001</v>
+      </c>
+      <c r="F5">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="H5">
+        <v>18552.309499999999</v>
+      </c>
+      <c r="I5">
+        <v>171819.36550000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>156368.55599999998</v>
+      </c>
+      <c r="D6">
+        <v>137695.67999999999</v>
+      </c>
+      <c r="E6">
+        <v>173295.74600000001</v>
+      </c>
+      <c r="F6">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="H6">
+        <v>23499.718099999998</v>
+      </c>
+      <c r="I6">
+        <v>196795.46410000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>188639.92</v>
+      </c>
+      <c r="D7">
+        <v>159811.20000000001</v>
+      </c>
+      <c r="E7">
+        <v>199504.09000000003</v>
+      </c>
+      <c r="F7">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.84719999999999995</v>
+      </c>
+      <c r="H7">
+        <v>35990.911399999997</v>
+      </c>
+      <c r="I7">
+        <v>235495.00140000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>213560.12160000001</v>
+      </c>
+      <c r="D8">
+        <v>187480</v>
+      </c>
+      <c r="E8">
+        <v>238961.03000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.78459999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.87790000000000001</v>
+      </c>
+      <c r="H8">
+        <v>33240.022400000002</v>
+      </c>
+      <c r="I8">
+        <v>272201.05240000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>257839.92</v>
+      </c>
+      <c r="D9">
+        <v>209404.32</v>
+      </c>
+      <c r="E9">
+        <v>272008.31000000006</v>
+      </c>
+      <c r="F9">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="G9">
+        <v>0.81210000000000004</v>
+      </c>
+      <c r="H9">
+        <v>62919.719400000002</v>
+      </c>
+      <c r="I9">
+        <v>334928.02940000006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>267119.75599999999</v>
+      </c>
+      <c r="D10">
+        <v>232330</v>
+      </c>
+      <c r="E10">
+        <v>303953.66700000013</v>
+      </c>
+      <c r="F10">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="H10">
+        <v>45512.501300000004</v>
+      </c>
+      <c r="I10">
+        <v>349466.16830000014</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>280120.13199999998</v>
+      </c>
+      <c r="D11">
+        <v>243306.88</v>
+      </c>
+      <c r="E11">
+        <v>317548.4286000001</v>
+      </c>
+      <c r="F11">
+        <v>0.76619999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="H11">
+        <v>48046.530899999998</v>
+      </c>
+      <c r="I11">
+        <v>365594.95950000011</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>286240</v>
+      </c>
+      <c r="D12">
+        <v>260190</v>
+      </c>
+      <c r="E12">
+        <v>337882.65000000014</v>
+      </c>
+      <c r="F12">
+        <v>0.77010000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="H12">
+        <v>33826.775699999998</v>
+      </c>
+      <c r="I12">
+        <v>371709.42570000014</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>296072</v>
+      </c>
+      <c r="D13">
+        <v>282608</v>
+      </c>
+      <c r="E13">
+        <v>370653.05740000017</v>
+      </c>
+      <c r="F13">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="G13">
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="H13">
+        <v>17657.704900000001</v>
+      </c>
+      <c r="I13">
+        <v>388310.76230000018</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>296072</v>
+      </c>
+      <c r="D14">
+        <v>294384</v>
+      </c>
+      <c r="E14">
+        <v>391066.45400000014</v>
+      </c>
+      <c r="F14">
+        <v>0.75280000000000002</v>
+      </c>
+      <c r="G14">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="H14">
+        <v>2242.2954</v>
+      </c>
+      <c r="I14">
+        <v>393308.74940000015</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3056,8 +3403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28181E40-4A45-4609-B2D8-C06D60A215BE}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3462,11 +3809,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -3738,11 +4085,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="19">
-        <v>5000</v>
+        <v>360</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4022,11 +4369,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -4253,11 +4600,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" si="4"/>
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -4485,11 +4832,11 @@
         <v>0</v>
       </c>
       <c r="M34" s="19">
-        <v>15000</v>
+        <v>4851</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -4712,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" ref="L39:L70" si="6">I39*K39</f>
+        <f t="shared" ref="L39:L69" si="6">I39*K39</f>
         <v>7056</v>
       </c>
       <c r="M39" s="1">
@@ -4762,11 +5109,11 @@
         <v>0</v>
       </c>
       <c r="M40" s="19">
-        <v>0</v>
+        <v>4638</v>
       </c>
       <c r="N40" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -4992,11 +5339,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="19">
-        <v>35000</v>
+        <v>4449</v>
       </c>
       <c r="N45" s="17">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -5307,18 +5654,18 @@
         <v>1</v>
       </c>
       <c r="K52" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M52" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N52" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
@@ -5544,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="19">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="N57" s="17">
         <f t="shared" si="4"/>
@@ -5824,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="19">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="N63" s="17">
         <f t="shared" si="4"/>
@@ -6143,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N69" s="17">
         <f t="shared" si="4"/>
@@ -6173,7 +6520,7 @@
       <c r="M71" s="20"/>
       <c r="N71" s="20">
         <f>SUM(N7:N69)</f>
-        <v>307446.6786000001</v>
+        <v>317548.4286000001</v>
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.25">
@@ -6182,7 +6529,7 @@
       </c>
       <c r="C74" s="1">
         <f>ROUND(L71/N71,4)</f>
-        <v>0.79139999999999999</v>
+        <v>0.76619999999999999</v>
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.25">
@@ -6200,7 +6547,7 @@
       </c>
       <c r="C76" s="1">
         <f>ROUND((I71-L71)/C74,4)</f>
-        <v>46516.618699999999</v>
+        <v>48046.530899999998</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.25">
@@ -6209,176 +6556,176 @@
       </c>
       <c r="C77" s="1">
         <f>N71+C76</f>
-        <v>353963.29730000009</v>
+        <v>365594.95950000011</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F72:G1048576 F70:G70 F5:G5 F1:G1">
-    <cfRule type="top10" dxfId="135" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="134" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F6 F70 F72:F1048576">
-    <cfRule type="cellIs" dxfId="134" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F16">
-    <cfRule type="cellIs" dxfId="133" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="132" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="131" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G44">
-    <cfRule type="top10" dxfId="130" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="129" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="129" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="128" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="127" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="126" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="125" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="124" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="123" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="122" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="121" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="120" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="119" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="118" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="117" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="116" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="115" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="top10" dxfId="114" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="113" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="113" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="112" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="111" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="110" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="109" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="108" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="107" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="cellIs" dxfId="106" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="105" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="104" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="103" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="101" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6391,8 +6738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C45A411-E67B-42F0-8AD6-E820C26AEDF2}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6797,11 +7144,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -7073,11 +7420,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="19">
-        <v>5000</v>
+        <v>360</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7357,11 +7704,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -7588,11 +7935,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" si="4"/>
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -7820,11 +8167,11 @@
         <v>0</v>
       </c>
       <c r="M34" s="19">
-        <v>15000</v>
+        <v>4851</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -8097,11 +8444,11 @@
         <v>0</v>
       </c>
       <c r="M40" s="19">
-        <v>0</v>
+        <v>4638</v>
       </c>
       <c r="N40" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -8327,11 +8674,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="19">
-        <v>35000</v>
+        <v>4449</v>
       </c>
       <c r="N45" s="17">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -8649,11 +8996,11 @@
         <v>0</v>
       </c>
       <c r="M52" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N52" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
@@ -8879,11 +9226,11 @@
         <v>0</v>
       </c>
       <c r="M57" s="19">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="N57" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
@@ -9159,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="19">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="N63" s="17">
         <f t="shared" si="4"/>
@@ -9440,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N69" s="17">
         <f t="shared" si="4"/>
@@ -9539,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" ref="L71:L102" si="7">I71*K71</f>
+        <f t="shared" ref="L71:L76" si="7">I71*K71</f>
         <v>0</v>
       </c>
       <c r="M71" s="1">
@@ -9814,7 +10161,7 @@
       <c r="M78" s="20"/>
       <c r="N78" s="20">
         <f>SUM(N7:N76)</f>
-        <v>327540.90000000014</v>
+        <v>337882.65000000014</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -9823,7 +10170,7 @@
       </c>
       <c r="C81" s="1">
         <f>ROUND(L78/N78,4)</f>
-        <v>0.7944</v>
+        <v>0.77010000000000001</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -9841,7 +10188,7 @@
       </c>
       <c r="C83" s="1">
         <f>ROUND((I78-L78)/C81,4)</f>
-        <v>32792.044300000001</v>
+        <v>33826.775699999998</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
@@ -9850,186 +10197,186 @@
       </c>
       <c r="C84" s="1">
         <f>N78+C83</f>
-        <v>360332.94430000015</v>
+        <v>371709.42570000014</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F79:G1048576 F5:G5 F1:G1 F77:G77">
-    <cfRule type="top10" dxfId="100" priority="43" rank="1"/>
+    <cfRule type="top10" dxfId="99" priority="43" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F6 F79:F1048576 F77">
-    <cfRule type="cellIs" dxfId="99" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F16">
-    <cfRule type="cellIs" dxfId="98" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="97" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="96" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G44">
-    <cfRule type="top10" dxfId="95" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="94" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="94" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="93" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="92" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="91" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="90" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="89" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="88" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="87" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="86" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="85" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="84" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="83" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="82" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="81" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="80" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:G78">
-    <cfRule type="top10" dxfId="79" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="78" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="78" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="cellIs" dxfId="77" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="76" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="75" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="74" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="73" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="72" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="71" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="cellIs" dxfId="70" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="68" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="cellIs" dxfId="67" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10042,8 +10389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925461CC-67F3-43C6-B4DD-187EDAB50E96}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10448,11 +10795,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -10724,11 +11071,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="19">
-        <v>5000</v>
+        <v>360</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -11008,11 +11355,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -11239,11 +11586,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" si="4"/>
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -11471,11 +11818,11 @@
         <v>0</v>
       </c>
       <c r="M34" s="19">
-        <v>15000</v>
+        <v>4851</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -11748,11 +12095,11 @@
         <v>0</v>
       </c>
       <c r="M40" s="19">
-        <v>0</v>
+        <v>4638</v>
       </c>
       <c r="N40" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -11978,11 +12325,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="19">
-        <v>35000</v>
+        <v>4449</v>
       </c>
       <c r="N45" s="17">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -12293,18 +12640,18 @@
         <v>1</v>
       </c>
       <c r="K52" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M52" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N52" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
@@ -12530,11 +12877,11 @@
         <v>0</v>
       </c>
       <c r="M57" s="19">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="N57" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
@@ -12810,11 +13157,11 @@
         <v>0</v>
       </c>
       <c r="M63" s="19">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="N63" s="17">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
@@ -13091,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N69" s="17">
         <f t="shared" si="4"/>
@@ -13445,7 +13792,7 @@
       <c r="M78" s="20"/>
       <c r="N78" s="20">
         <f>SUM(N7:N76)</f>
-        <v>370271.30740000017</v>
+        <v>370653.05740000017</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -13454,7 +13801,7 @@
       </c>
       <c r="C81" s="1">
         <f>ROUND(L78/N78,4)</f>
-        <v>0.76319999999999999</v>
+        <v>0.76249999999999996</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -13472,7 +13819,7 @@
       </c>
       <c r="C83" s="1">
         <f>ROUND((I78-L78)/C81,4)</f>
-        <v>17641.509399999999</v>
+        <v>17657.704900000001</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
@@ -13481,186 +13828,186 @@
       </c>
       <c r="C84" s="1">
         <f>N78+C83</f>
-        <v>387912.81680000015</v>
+        <v>388310.76230000018</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F79:G1048576 F5:G5 F1:G1 F77:G77">
-    <cfRule type="top10" dxfId="63" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F6 F79:F1048576 F77">
-    <cfRule type="cellIs" dxfId="62" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F16">
-    <cfRule type="cellIs" dxfId="61" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="60" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="59" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G44">
-    <cfRule type="top10" dxfId="58" priority="37" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="37" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="57" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="56" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="55" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="54" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="53" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="52" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="50" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="49" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="48" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="47" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="46" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="45" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="44" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="43" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:G78">
-    <cfRule type="top10" dxfId="42" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="17" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="41" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="cellIs" dxfId="40" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="38" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13673,8 +14020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1305C3EB-2F84-4D2C-9CBD-BEE4F9B068A0}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14079,11 +14426,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -14355,11 +14702,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="19">
-        <v>5000</v>
+        <v>360</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -14639,11 +14986,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -14870,11 +15217,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" si="4"/>
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -15102,11 +15449,11 @@
         <v>0</v>
       </c>
       <c r="M34" s="19">
-        <v>15000</v>
+        <v>4851</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -15379,11 +15726,11 @@
         <v>0</v>
       </c>
       <c r="M40" s="19">
-        <v>0</v>
+        <v>4638</v>
       </c>
       <c r="N40" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -15609,11 +15956,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="19">
-        <v>35000</v>
+        <v>4449</v>
       </c>
       <c r="N45" s="17">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -15931,11 +16278,11 @@
         <v>0</v>
       </c>
       <c r="M52" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N52" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
@@ -16161,11 +16508,11 @@
         <v>0</v>
       </c>
       <c r="M57" s="19">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="N57" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
@@ -16441,11 +16788,11 @@
         <v>0</v>
       </c>
       <c r="M63" s="19">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="N63" s="17">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
@@ -16722,11 +17069,11 @@
         <v>0</v>
       </c>
       <c r="M69" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N69" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
@@ -16946,18 +17293,18 @@
         <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1">
         <f t="shared" si="6"/>
-        <v>589.68000000000006</v>
+        <v>0</v>
       </c>
       <c r="M74" s="1">
         <v>2636.4</v>
       </c>
       <c r="N74" s="1">
         <f t="shared" si="4"/>
-        <v>1028.1960000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -16992,18 +17339,18 @@
         <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="L75" s="1">
         <f t="shared" si="6"/>
-        <v>4400</v>
+        <v>4224</v>
       </c>
       <c r="M75" s="1">
         <v>8876.4</v>
       </c>
       <c r="N75" s="1">
         <f t="shared" si="4"/>
-        <v>8876.4</v>
+        <v>8521.3439999999991</v>
       </c>
       <c r="P75" s="7"/>
     </row>
@@ -17074,12 +17421,12 @@
       <c r="K78" s="20"/>
       <c r="L78" s="20">
         <f>SUM(L7:L76)</f>
-        <v>295149.68</v>
+        <v>294384</v>
       </c>
       <c r="M78" s="20"/>
       <c r="N78" s="20">
         <f>SUM(N7:N76)</f>
-        <v>392027.95600000018</v>
+        <v>391066.45400000014</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -17088,7 +17435,7 @@
       </c>
       <c r="C81" s="1">
         <f>ROUND(L78/N78,4)</f>
-        <v>0.75290000000000001</v>
+        <v>0.75280000000000002</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -17097,7 +17444,7 @@
       </c>
       <c r="C82" s="1">
         <f>ROUND(L78/I78,4)</f>
-        <v>0.99690000000000001</v>
+        <v>0.99429999999999996</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -17106,7 +17453,7 @@
       </c>
       <c r="C83" s="1">
         <f>ROUND((I78-L78)/C81,4)</f>
-        <v>1225.0232000000001</v>
+        <v>2242.2954</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
@@ -17115,131 +17462,131 @@
       </c>
       <c r="C84" s="1">
         <f>N78+C83</f>
-        <v>393252.97920000018</v>
+        <v>393308.74940000015</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F79:G1048576 F5:G5 F1:G1 G77">
-    <cfRule type="top10" dxfId="26" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F6 F79:F1048576">
-    <cfRule type="cellIs" dxfId="25" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F16">
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="23" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="22" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G44">
-    <cfRule type="top10" dxfId="21" priority="39" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="39" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="17" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="15" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="14" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="13" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="12" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="11" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="10" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="8" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="7" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="top10" dxfId="6" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17252,8 +17599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4543C14-4642-4528-B35A-96BC53387948}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17658,7 +18005,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="4"/>
@@ -17967,7 +18314,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="19">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="4"/>
@@ -18056,7 +18403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18068,8 +18415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7C0926-A0D2-41BD-A840-271E53FDE580}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18474,11 +18821,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -18750,7 +19097,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="19">
-        <v>5000</v>
+        <v>360</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" ref="N18" si="6">M18*K18</f>
@@ -19072,11 +19419,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -19102,7 +19449,7 @@
       <c r="M25" s="20"/>
       <c r="N25" s="20">
         <f>SUM(N7:N24)</f>
-        <v>92712.51</v>
+        <v>92812.51</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -19111,7 +19458,7 @@
       </c>
       <c r="C27" s="1">
         <f>ROUND(L25/N25,4)</f>
-        <v>0.79159999999999997</v>
+        <v>0.79069999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -19129,7 +19476,7 @@
       </c>
       <c r="C29" s="1">
         <f>ROUND((I25-L25)/C27,4)</f>
-        <v>22463.350200000001</v>
+        <v>22488.918699999998</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -19138,35 +19485,35 @@
       </c>
       <c r="C30" s="1">
         <f>N25+C29</f>
-        <v>115175.8602</v>
+        <v>115301.42869999999</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F25:G1048576 F5:G5 F1:G1">
-    <cfRule type="top10" dxfId="303" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="302" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F25:F1048576 F6">
-    <cfRule type="cellIs" dxfId="302" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F16">
-    <cfRule type="cellIs" dxfId="301" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="300" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="299" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="298" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19178,8 +19525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605BB0D7-350B-4E86-BA40-BFE6A51007A7}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19584,11 +19931,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -19860,11 +20207,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="19">
-        <v>5000</v>
+        <v>360</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -20144,7 +20491,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="4"/>
@@ -20385,7 +20732,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" ref="N29" si="7">M29*K29</f>
@@ -20403,19 +20750,19 @@
       <c r="G31" s="21"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20">
-        <f>SUM(I7:I28)</f>
+        <f>SUM(I7:I29)</f>
         <v>135916.1568</v>
       </c>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20">
-        <f>SUM(L7:L28)</f>
+        <f>SUM(L7:L29)</f>
         <v>121241.28</v>
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="20">
-        <f>SUM(N7:N28)</f>
-        <v>157867.05600000001</v>
+        <f>SUM(N7:N29)</f>
+        <v>153267.05600000001</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -20424,7 +20771,7 @@
       </c>
       <c r="C33" s="1">
         <f>ROUND(L31/N31,4)</f>
-        <v>0.76800000000000002</v>
+        <v>0.79100000000000004</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -20442,7 +20789,7 @@
       </c>
       <c r="C35" s="1">
         <f>ROUND((I31-L31)/C33,4)</f>
-        <v>19107.912499999999</v>
+        <v>18552.309499999999</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -20451,63 +20798,63 @@
       </c>
       <c r="C36" s="1">
         <f>N31+C35</f>
-        <v>176974.96850000002</v>
+        <v>171819.36550000001</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F31:G1048576 F5:G5 F1:G1">
-    <cfRule type="top10" dxfId="297" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="296" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F6 F30:F1048576">
-    <cfRule type="cellIs" dxfId="296" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F16">
-    <cfRule type="cellIs" dxfId="295" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="294" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="293" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:G30">
-    <cfRule type="top10" dxfId="292" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="291" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="291" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="290" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="289" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="288" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="287" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="286" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20519,8 +20866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1C1008-E3EF-4B7C-A8DE-FF6AF86E2120}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20925,11 +21272,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -21201,11 +21548,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="19">
-        <v>5000</v>
+        <v>360</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -21485,11 +21832,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -21716,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" si="4"/>
@@ -21968,7 +22315,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="19">
-        <v>15000</v>
+        <v>4851</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" ref="N34" si="7">M34*K34</f>
@@ -21998,7 +22345,7 @@
       <c r="M36" s="20"/>
       <c r="N36" s="20">
         <f>SUM(N7:N34)</f>
-        <v>177835.74600000001</v>
+        <v>173295.74600000001</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
@@ -22007,7 +22354,7 @@
       </c>
       <c r="C38" s="1">
         <f>ROUND(L36/N36,4)</f>
-        <v>0.77429999999999999</v>
+        <v>0.79459999999999997</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
@@ -22025,7 +22372,7 @@
       </c>
       <c r="C40" s="1">
         <f>ROUND((I36-L36)/C38,4)</f>
-        <v>24115.815600000002</v>
+        <v>23499.718099999998</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
@@ -22034,88 +22381,88 @@
       </c>
       <c r="C41" s="1">
         <f>N36+C40</f>
-        <v>201951.56160000002</v>
+        <v>196795.46410000001</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F36:G1048576 F5:G5 F1:G1">
-    <cfRule type="top10" dxfId="285" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="284" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F6 F35:F1048576">
-    <cfRule type="cellIs" dxfId="284" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F16">
-    <cfRule type="cellIs" dxfId="283" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="282" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="281" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="top10" dxfId="280" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="279" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="279" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="278" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="277" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="276" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="275" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="274" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="273" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="272" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="271" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="270" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="269" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22128,7 +22475,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22533,11 +22880,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -22809,11 +23156,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="19">
-        <v>5000</v>
+        <v>360</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -23093,11 +23440,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -23324,11 +23671,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" si="4"/>
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -23556,7 +23903,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="19">
-        <v>15000</v>
+        <v>4851</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" si="4"/>
@@ -23843,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="19">
-        <v>0</v>
+        <v>4638</v>
       </c>
       <c r="N40" s="17">
         <f t="shared" ref="N40" si="6">M40*K40</f>
@@ -23872,8 +24219,8 @@
       </c>
       <c r="M42" s="20"/>
       <c r="N42" s="20">
-        <f>SUM(N7:N34)</f>
-        <v>153380.34000000003</v>
+        <f>SUM(N7:N40)</f>
+        <v>199504.09000000003</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
@@ -23882,7 +24229,7 @@
       </c>
       <c r="C44" s="1">
         <f>ROUND(L42/N42,4)</f>
-        <v>1.0419</v>
+        <v>0.80100000000000005</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
@@ -23900,7 +24247,7 @@
       </c>
       <c r="C46" s="1">
         <f>ROUND((I42-L42)/C44,4)</f>
-        <v>27669.373299999999</v>
+        <v>35990.911399999997</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
@@ -23909,118 +24256,118 @@
       </c>
       <c r="C47" s="1">
         <f>N42+C46</f>
-        <v>181049.71330000003</v>
+        <v>235495.00140000001</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F42:G1048576 F5:G5 F1:G1">
-    <cfRule type="top10" dxfId="268" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="267" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F6 F41:F1048576">
-    <cfRule type="cellIs" dxfId="267" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F16">
-    <cfRule type="cellIs" dxfId="266" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="265" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="264" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:G41">
-    <cfRule type="top10" dxfId="263" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="262" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="262" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="261" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="260" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="259" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="258" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="257" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="256" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="255" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="254" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="253" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="252" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="251" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="250" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="249" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="248" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="247" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="246" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24033,8 +24380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95132D3A-EC12-41E3-9777-CA462179FB45}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24439,11 +24786,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -24715,11 +25062,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="19">
-        <v>5000</v>
+        <v>360</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -24999,11 +25346,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -25230,11 +25577,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" si="4"/>
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -25462,11 +25809,11 @@
         <v>0</v>
       </c>
       <c r="M34" s="19">
-        <v>15000</v>
+        <v>4851</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
@@ -25739,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="19">
-        <v>0</v>
+        <v>4638</v>
       </c>
       <c r="N40" s="17">
         <f t="shared" si="4"/>
@@ -25969,7 +26316,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="19">
-        <v>35000</v>
+        <v>4449</v>
       </c>
       <c r="N45" s="17">
         <f t="shared" ref="N45:N51" si="9">M45*K45</f>
@@ -26347,7 +26694,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N52" s="17">
         <f t="shared" ref="N52" si="13">M52*K52</f>
@@ -26377,7 +26724,7 @@
       <c r="M54" s="20"/>
       <c r="N54" s="20">
         <f>SUM(N7:N52)</f>
-        <v>202986.28000000003</v>
+        <v>238961.03000000003</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
@@ -26386,7 +26733,7 @@
       </c>
       <c r="C56" s="1">
         <f>ROUND(L54/N54,4)</f>
-        <v>0.92359999999999998</v>
+        <v>0.78459999999999996</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
@@ -26404,7 +26751,7 @@
       </c>
       <c r="C58" s="1">
         <f>ROUND((I54-L54)/C56,4)</f>
-        <v>28237.463800000001</v>
+        <v>33240.022400000002</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
@@ -26413,133 +26760,133 @@
       </c>
       <c r="C59" s="1">
         <f>N54+C58</f>
-        <v>231223.74380000003</v>
+        <v>272201.05240000004</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F54:G1048576 F5:G5 F1:G1">
-    <cfRule type="top10" dxfId="245" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="244" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F6 F53:F1048576">
-    <cfRule type="cellIs" dxfId="244" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F16">
-    <cfRule type="cellIs" dxfId="243" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="242" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="241" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G44 F53:G53">
-    <cfRule type="top10" dxfId="240" priority="33" rank="1"/>
+    <cfRule type="top10" dxfId="239" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="239" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="238" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="237" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="236" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="235" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="234" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="233" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="232" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="231" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="230" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="229" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F44">
-    <cfRule type="cellIs" dxfId="228" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="227" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="226" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="225" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="224" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="223" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="222" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="221" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="220" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26553,7 +26900,7 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26958,11 +27305,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -27234,11 +27581,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="19">
-        <v>5000</v>
+        <v>360</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -27518,11 +27865,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -27749,11 +28096,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" si="4"/>
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -27981,11 +28328,11 @@
         <v>0</v>
       </c>
       <c r="M34" s="19">
-        <v>15000</v>
+        <v>4851</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -28208,7 +28555,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" ref="L39:L70" si="6">I39*K39</f>
+        <f t="shared" ref="L39:L63" si="6">I39*K39</f>
         <v>7056</v>
       </c>
       <c r="M39" s="1">
@@ -28258,11 +28605,11 @@
         <v>0</v>
       </c>
       <c r="M40" s="19">
-        <v>0</v>
+        <v>4638</v>
       </c>
       <c r="N40" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -28488,7 +28835,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="19">
-        <v>35000</v>
+        <v>4449</v>
       </c>
       <c r="N45" s="17">
         <f t="shared" si="4"/>
@@ -28810,7 +29157,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N52" s="17">
         <f t="shared" si="4"/>
@@ -29040,7 +29387,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="19">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="N57" s="17">
         <f t="shared" ref="N57:N63" si="10">M57*K57</f>
@@ -29130,17 +29477,15 @@
       </c>
       <c r="I59" s="1">
         <f t="shared" si="5"/>
-        <v>3000.0600000000004</v>
+        <v>4200</v>
       </c>
       <c r="J59" s="1">
-        <f>ROUND(Q59/R59,4)</f>
-        <v>0.71430000000000005</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
         <v>0</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M59" s="1">
@@ -29150,16 +29495,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P59" s="7">
-        <v>44483</v>
-      </c>
-      <c r="Q59" s="1">
-        <f>NETWORKDAYS(P59,$D$3)</f>
-        <v>5</v>
-      </c>
-      <c r="R59" s="1">
-        <v>7</v>
-      </c>
+      <c r="P59" s="7"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
@@ -29360,7 +29696,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="19">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="N63" s="17">
         <f t="shared" si="10"/>
@@ -29378,19 +29714,19 @@
       <c r="G65" s="21"/>
       <c r="H65" s="20"/>
       <c r="I65" s="20">
-        <f>SUM(I7:I52)</f>
-        <v>234048</v>
+        <f>SUM(I7:I63)</f>
+        <v>257839.92</v>
       </c>
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
       <c r="L65" s="20">
-        <f>SUM(L7:L56)</f>
+        <f>SUM(L7:L63)</f>
         <v>209404.32</v>
       </c>
       <c r="M65" s="20"/>
       <c r="N65" s="20">
-        <f>SUM(N7:N56)</f>
-        <v>231395.56000000003</v>
+        <f>SUM(N7:N63)</f>
+        <v>272008.31000000006</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
@@ -29399,7 +29735,7 @@
       </c>
       <c r="C68" s="1">
         <f>ROUND(L65/N65,4)</f>
-        <v>0.90500000000000003</v>
+        <v>0.76980000000000004</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
@@ -29408,7 +29744,7 @@
       </c>
       <c r="C69" s="1">
         <f>ROUND(L65/I65,4)</f>
-        <v>0.89470000000000005</v>
+        <v>0.81210000000000004</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
@@ -29417,7 +29753,7 @@
       </c>
       <c r="C70" s="1">
         <f>ROUND((I65-L65)/C68,4)</f>
-        <v>27230.585599999999</v>
+        <v>62919.719400000002</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
@@ -29426,196 +29762,196 @@
       </c>
       <c r="C71" s="1">
         <f>N65+C70</f>
-        <v>258626.14560000002</v>
+        <v>334928.02940000006</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F66:G1048576 F64:G64 F5:G5 F1:G1">
-    <cfRule type="top10" dxfId="219" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="218" priority="41" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F6 F64 F66:F1048576">
-    <cfRule type="cellIs" dxfId="218" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F16">
-    <cfRule type="cellIs" dxfId="217" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="216" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="215" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G44">
-    <cfRule type="top10" dxfId="214" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="213" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="213" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="212" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="211" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="210" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="209" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="208" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="207" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="206" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="205" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="204" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="203" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="202" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="201" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="200" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="199" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="198" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="197" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="196" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="195" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="194" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="193" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:G65">
-    <cfRule type="top10" dxfId="192" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="191" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="191" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="190" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="189" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="188" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="187" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="186" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="185" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="184" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="183" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="182" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="181" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29628,8 +29964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A6601A-8407-4587-BCED-074E4BF39E1F}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30034,11 +30370,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -30310,11 +30646,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="19">
-        <v>5000</v>
+        <v>360</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -30594,11 +30930,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -30825,11 +31161,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="19">
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" si="4"/>
-        <v>-50000</v>
+        <v>663.75</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -31057,11 +31393,11 @@
         <v>0</v>
       </c>
       <c r="M34" s="19">
-        <v>15000</v>
+        <v>4851</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -31284,7 +31620,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" ref="L39:L70" si="6">I39*K39</f>
+        <f t="shared" ref="L39:L69" si="6">I39*K39</f>
         <v>7056</v>
       </c>
       <c r="M39" s="1">
@@ -31334,11 +31670,11 @@
         <v>0</v>
       </c>
       <c r="M40" s="19">
-        <v>0</v>
+        <v>4638</v>
       </c>
       <c r="N40" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -31564,11 +31900,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="19">
-        <v>35000</v>
+        <v>4449</v>
       </c>
       <c r="N45" s="17">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -31886,7 +32222,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N52" s="17">
         <f t="shared" si="4"/>
@@ -32116,7 +32452,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="19">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="N57" s="17">
         <f t="shared" si="4"/>
@@ -32396,7 +32732,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="19">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="N63" s="17">
         <f t="shared" si="4"/>
@@ -32708,7 +33044,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N69" s="17">
         <f t="shared" ref="N69" si="10">M69*K69</f>
@@ -32738,7 +33074,7 @@
       <c r="M71" s="20"/>
       <c r="N71" s="20">
         <f>SUM(N7:N69)</f>
-        <v>293891.91700000013</v>
+        <v>303953.66700000013</v>
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.25">
@@ -32747,7 +33083,7 @@
       </c>
       <c r="C74" s="1">
         <f>ROUND(L71/N71,4)</f>
-        <v>0.79049999999999998</v>
+        <v>0.76439999999999997</v>
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.25">
@@ -32765,7 +33101,7 @@
       </c>
       <c r="C76" s="1">
         <f>ROUND((I71-L71)/C74,4)</f>
-        <v>44009.811500000003</v>
+        <v>45512.501300000004</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.25">
@@ -32774,226 +33110,226 @@
       </c>
       <c r="C77" s="1">
         <f>N71+C76</f>
-        <v>337901.72850000014</v>
+        <v>349466.16830000014</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F72:G1048576 F70:G70 F5:G5 F1:G1">
-    <cfRule type="top10" dxfId="180" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="179" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F6 F70 F72:F1048576">
-    <cfRule type="cellIs" dxfId="179" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F16">
-    <cfRule type="cellIs" dxfId="178" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="177" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="176" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G44">
-    <cfRule type="top10" dxfId="175" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="174" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="174" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="173" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="172" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="171" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="170" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="169" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="168" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="167" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="166" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="165" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="164" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="163" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="162" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="161" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="160" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="159" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="158" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="157" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="156" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="cellIs" dxfId="155" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="154" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="top10" dxfId="153" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="152" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="152" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="151" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="150" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="149" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="148" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="147" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="146" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="145" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="144" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="143" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="142" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="cellIs" dxfId="141" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="140" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="139" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="138" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="137" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="136" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33003,18 +33339,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33194,18 +33530,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97440079-3730-432A-B1FC-864C0EBAE3CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA3C3E4-7362-49E3-85D1-432ABD3BF726}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA3C3E4-7362-49E3-85D1-432ABD3BF726}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97440079-3730-432A-B1FC-864C0EBAE3CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/EVA.xlsx
+++ b/EVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\source\repos\ProjMan412\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06100BC3-4CFB-4068-A89A-1C53F010AD71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC81135-6542-482A-92D8-DD42FDFD1525}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3051,7 +3051,7 @@
   <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,10 +3102,10 @@
         <v>0.93659999999999999</v>
       </c>
       <c r="H3">
-        <v>3779.6399000000001</v>
+        <v>310324.01679999998</v>
       </c>
       <c r="I3">
-        <v>59607.5599</v>
+        <v>366151.93679999997</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -3128,10 +3128,10 @@
         <v>0.80500000000000005</v>
       </c>
       <c r="H4">
-        <v>22488.918699999998</v>
+        <v>281630.15049999999</v>
       </c>
       <c r="I4">
-        <v>115301.42869999999</v>
+        <v>374442.6605</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -3153,11 +3153,11 @@
       <c r="G5">
         <v>0.89200000000000002</v>
       </c>
-      <c r="H5">
-        <v>18552.309499999999</v>
+      <c r="H5" s="1">
+        <v>221024.93049999999</v>
       </c>
       <c r="I5">
-        <v>171819.36550000001</v>
+        <v>374291.9865</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -3180,10 +3180,10 @@
         <v>0.88060000000000005</v>
       </c>
       <c r="H6">
-        <v>23499.718099999998</v>
+        <v>199315.78150000001</v>
       </c>
       <c r="I6">
-        <v>196795.46410000001</v>
+        <v>372611.52750000003</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -3206,10 +3206,10 @@
         <v>0.84719999999999995</v>
       </c>
       <c r="H7">
-        <v>35990.911399999997</v>
+        <v>170113.35829999999</v>
       </c>
       <c r="I7">
-        <v>235495.00140000001</v>
+        <v>369617.44830000005</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -3232,10 +3232,10 @@
         <v>0.87790000000000001</v>
       </c>
       <c r="H8">
-        <v>33240.022400000002</v>
+        <v>138404.2824</v>
       </c>
       <c r="I8">
-        <v>272201.05240000004</v>
+        <v>377365.31240000005</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -3258,10 +3258,10 @@
         <v>0.81210000000000004</v>
       </c>
       <c r="H9">
-        <v>62919.719400000002</v>
+        <v>112584.6713</v>
       </c>
       <c r="I9">
-        <v>334928.02940000006</v>
+        <v>384592.98130000004</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -3284,10 +3284,10 @@
         <v>0.86980000000000002</v>
       </c>
       <c r="H10">
-        <v>45512.501300000004</v>
+        <v>83388.278399999996</v>
       </c>
       <c r="I10">
-        <v>349466.16830000014</v>
+        <v>387341.94540000014</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -3310,10 +3310,10 @@
         <v>0.86860000000000004</v>
       </c>
       <c r="H11">
-        <v>48046.530899999998</v>
-      </c>
-      <c r="I11">
-        <v>365594.95950000011</v>
+        <v>68865.987999999998</v>
+      </c>
+      <c r="I11" s="1">
+        <v>386414.41660000011</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -3336,10 +3336,10 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="H12">
-        <v>33826.775699999998</v>
+        <v>46593.948799999998</v>
       </c>
       <c r="I12">
-        <v>371709.42570000014</v>
+        <v>384476.59880000015</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -6546,8 +6546,8 @@
         <v>46</v>
       </c>
       <c r="C76" s="1">
-        <f>ROUND((I71-L71)/C74,4)</f>
-        <v>48046.530899999998</v>
+        <f>ROUND((296072-L71)/C74,4)</f>
+        <v>68865.987999999998</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.25">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="C77" s="1">
         <f>N71+C76</f>
-        <v>365594.95950000011</v>
+        <v>386414.41660000011</v>
       </c>
     </row>
   </sheetData>
@@ -10187,8 +10187,8 @@
         <v>46</v>
       </c>
       <c r="C83" s="1">
-        <f>ROUND((I78-L78)/C81,4)</f>
-        <v>33826.775699999998</v>
+        <f>ROUND((296072-L78)/C81,4)</f>
+        <v>46593.948799999998</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="C84" s="1">
         <f>N78+C83</f>
-        <v>371709.42570000014</v>
+        <v>384476.59880000015</v>
       </c>
     </row>
   </sheetData>
@@ -13818,7 +13818,7 @@
         <v>46</v>
       </c>
       <c r="C83" s="1">
-        <f>ROUND((I78-L78)/C81,4)</f>
+        <f>ROUND((296072-L78)/C81,4)</f>
         <v>17657.704900000001</v>
       </c>
     </row>
@@ -14020,8 +14020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1305C3EB-2F84-4D2C-9CBD-BEE4F9B068A0}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17412,7 +17412,10 @@
       <c r="E78" s="21"/>
       <c r="F78" s="1"/>
       <c r="G78" s="21"/>
-      <c r="H78" s="20"/>
+      <c r="H78" s="20">
+        <f>SUM(H7:H76)</f>
+        <v>296072</v>
+      </c>
       <c r="I78" s="20">
         <f>SUM(I7:I76)</f>
         <v>296072</v>
@@ -17452,7 +17455,7 @@
         <v>46</v>
       </c>
       <c r="C83" s="1">
-        <f>ROUND((I78-L78)/C81,4)</f>
+        <f>ROUND((296072-L78)/C81,4)</f>
         <v>2242.2954</v>
       </c>
     </row>
@@ -18370,8 +18373,8 @@
         <v>46</v>
       </c>
       <c r="C23" s="1">
-        <f>ROUND((I19-L19)/C21,4)</f>
-        <v>3779.6399000000001</v>
+        <f>ROUND((296072-L19)/C21,4)</f>
+        <v>310324.01679999998</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
@@ -18380,7 +18383,7 @@
       </c>
       <c r="C24" s="1">
         <f>N19+C23</f>
-        <v>59607.5599</v>
+        <v>366151.93679999997</v>
       </c>
     </row>
   </sheetData>
@@ -19475,8 +19478,8 @@
         <v>46</v>
       </c>
       <c r="C29" s="1">
-        <f>ROUND((I25-L25)/C27,4)</f>
-        <v>22488.918699999998</v>
+        <f>ROUND((296072-L25)/C27,4)</f>
+        <v>281630.15049999999</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -19485,7 +19488,7 @@
       </c>
       <c r="C30" s="1">
         <f>N25+C29</f>
-        <v>115301.42869999999</v>
+        <v>374442.6605</v>
       </c>
     </row>
   </sheetData>
@@ -20788,8 +20791,8 @@
         <v>46</v>
       </c>
       <c r="C35" s="1">
-        <f>ROUND((I31-L31)/C33,4)</f>
-        <v>18552.309499999999</v>
+        <f>ROUND((296072-L31)/C33,4)</f>
+        <v>221024.93049999999</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -20798,7 +20801,7 @@
       </c>
       <c r="C36" s="1">
         <f>N31+C35</f>
-        <v>171819.36550000001</v>
+        <v>374291.9865</v>
       </c>
     </row>
   </sheetData>
@@ -22371,8 +22374,8 @@
         <v>46</v>
       </c>
       <c r="C40" s="1">
-        <f>ROUND((I36-L36)/C38,4)</f>
-        <v>23499.718099999998</v>
+        <f>ROUND((296072-L36)/C38,4)</f>
+        <v>199315.78150000001</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
@@ -22381,7 +22384,7 @@
       </c>
       <c r="C41" s="1">
         <f>N36+C40</f>
-        <v>196795.46410000001</v>
+        <v>372611.52750000003</v>
       </c>
     </row>
   </sheetData>
@@ -22474,7 +22477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF63442B-36FE-4536-AF6A-F902A9F96283}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -24246,8 +24249,8 @@
         <v>46</v>
       </c>
       <c r="C46" s="1">
-        <f>ROUND((I42-L42)/C44,4)</f>
-        <v>35990.911399999997</v>
+        <f>ROUND((296072-L42)/C44,4)</f>
+        <v>170113.35829999999</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
@@ -24256,7 +24259,7 @@
       </c>
       <c r="C47" s="1">
         <f>N42+C46</f>
-        <v>235495.00140000001</v>
+        <v>369617.44830000005</v>
       </c>
     </row>
   </sheetData>
@@ -26750,8 +26753,8 @@
         <v>46</v>
       </c>
       <c r="C58" s="1">
-        <f>ROUND((I54-L54)/C56,4)</f>
-        <v>33240.022400000002</v>
+        <f>ROUND((296072-L54)/C56,4)</f>
+        <v>138404.2824</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
@@ -26760,7 +26763,7 @@
       </c>
       <c r="C59" s="1">
         <f>N54+C58</f>
-        <v>272201.05240000004</v>
+        <v>377365.31240000005</v>
       </c>
     </row>
   </sheetData>
@@ -29752,8 +29755,8 @@
         <v>46</v>
       </c>
       <c r="C70" s="1">
-        <f>ROUND((I65-L65)/C68,4)</f>
-        <v>62919.719400000002</v>
+        <f>ROUND((296072-L65)/C68,4)</f>
+        <v>112584.6713</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
@@ -29762,7 +29765,7 @@
       </c>
       <c r="C71" s="1">
         <f>N65+C70</f>
-        <v>334928.02940000006</v>
+        <v>384592.98130000004</v>
       </c>
     </row>
   </sheetData>
@@ -33100,8 +33103,8 @@
         <v>46</v>
       </c>
       <c r="C76" s="1">
-        <f>ROUND((I71-L71)/C74,4)</f>
-        <v>45512.501300000004</v>
+        <f>ROUND((296072-L71)/C74,4)</f>
+        <v>83388.278399999996</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.25">
@@ -33110,7 +33113,7 @@
       </c>
       <c r="C77" s="1">
         <f>N71+C76</f>
-        <v>349466.16830000014</v>
+        <v>387341.94540000014</v>
       </c>
     </row>
   </sheetData>
@@ -33339,21 +33342,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071653D7A7AD0F042B81CC9D7104BD79A" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53cf290c298691ee1eefd73e74fdead6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d6c70525-6c7a-4f52-b73c-2c8400edbf08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65d72cc0c5b6c426c55d70069f464dc3" ns2:_="">
     <xsd:import namespace="d6c70525-6c7a-4f52-b73c-2c8400edbf08"/>
@@ -33529,24 +33517,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA3C3E4-7362-49E3-85D1-432ABD3BF726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97440079-3730-432A-B1FC-864C0EBAE3CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F13AC17-8982-4195-84C9-077EA8A26B78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33562,4 +33548,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97440079-3730-432A-B1FC-864C0EBAE3CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA3C3E4-7362-49E3-85D1-432ABD3BF726}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/EVA.xlsx
+++ b/EVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\source\repos\ProjMan412\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5378306-4415-494B-A875-8D13C5FF7DB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F865223C-3237-4200-B3C4-BB8CDCB05E57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="128">
   <si>
     <t>Task</t>
   </si>
@@ -384,10 +384,55 @@
     <t>Milestone Date</t>
   </si>
   <si>
-    <t>BaselineCost * SchedCompletion%</t>
+    <t>Formula</t>
   </si>
   <si>
-    <t>Formula</t>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Managerial actions and unallocated resource costs are assumed to take place at the end of their respective periods</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Baseline Cost</t>
+  </si>
+  <si>
+    <t>Cost Performance Index</t>
+  </si>
+  <si>
+    <t>Schedule Performance Index</t>
+  </si>
+  <si>
+    <t>Nomenclature</t>
+  </si>
+  <si>
+    <t>Abbrev.</t>
+  </si>
+  <si>
+    <t>BC * PlannedComplete%</t>
+  </si>
+  <si>
+    <t>BC * Complete%</t>
+  </si>
+  <si>
+    <t>EV/PV</t>
+  </si>
+  <si>
+    <t>EV/AC</t>
+  </si>
+  <si>
+    <t>Estimated Cost at Completion</t>
+  </si>
+  <si>
+    <t>Estimated Cost to Complete</t>
+  </si>
+  <si>
+    <t>(BC(total)-EV)/CPI</t>
+  </si>
+  <si>
+    <t>AC+EAC</t>
   </si>
 </sst>
 </file>
@@ -420,7 +465,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +520,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -503,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -609,6 +666,8 @@
     <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2823,8 +2882,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CPI versus SPI</a:t>
+              <a:t>CPI versus SPI across</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Periods</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2868,7 +2932,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$H$8</c:f>
+              <c:f>Summary!$H$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2909,7 +2973,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E0FD913-9E05-466D-935E-EE37B5ADBA8B}" type="CELLRANGE">
+                    <a:fld id="{3FB29E2E-F6DE-46B6-9795-7947BC60EC56}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2942,7 +3006,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{077BEBC8-8A7D-44B0-88F5-4591787B725A}" type="CELLRANGE">
+                    <a:fld id="{9B43963B-6A52-4B33-822D-03086E67D26F}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2976,7 +3040,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5ABE438-3189-4F8C-8BBE-0141719E16AB}" type="CELLRANGE">
+                    <a:fld id="{F66778DC-F94A-4473-9BA3-AAA38E23B742}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3010,7 +3074,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0230DDE-0FDA-46B8-A648-628C6E59FD92}" type="CELLRANGE">
+                    <a:fld id="{F63D42AE-97EA-4884-9536-E628ACE9037F}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3044,7 +3108,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62AC5CB6-4750-474F-A148-C96F2222CFAA}" type="CELLRANGE">
+                    <a:fld id="{961D0134-604F-49BB-8B1C-C17619C1E0CD}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3078,7 +3142,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B76FF37A-AA05-4233-96BD-9EF5028E89A0}" type="CELLRANGE">
+                    <a:fld id="{1FABF3BC-8933-4DCF-A50F-2FD11825BBDC}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3112,7 +3176,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7DC9FBD-AB92-40A7-A677-7E0798245491}" type="CELLRANGE">
+                    <a:fld id="{3ADF24BB-545F-4F17-8F57-ACCD89939B8F}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3146,7 +3210,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD6821A4-149F-4842-844E-0BFD00F90DC0}" type="CELLRANGE">
+                    <a:fld id="{2B40F105-214C-4F0E-81FE-E308B2F094F4}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3180,7 +3244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8D0395F-825E-4E13-A87F-13DADE207619}" type="CELLRANGE">
+                    <a:fld id="{0191AE32-493F-4D0F-B711-D38BAB31FDA1}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3267,7 +3331,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$G$9:$G$17</c:f>
+              <c:f>Summary!$G$12:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3303,7 +3367,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$H$9:$H$17</c:f>
+              <c:f>Summary!$H$12:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3341,7 +3405,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Summary!$B$9:$B$17</c15:f>
+                <c15:f>Summary!$B$12:$B$20</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
@@ -3802,7 +3866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A2DBAD3-0795-4731-877D-0990A27F813A}" type="CELLRANGE">
+                    <a:fld id="{3EB6F508-C4C7-4440-8BA8-6A8E40C2DA07}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3821,7 +3885,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3836,8 +3899,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B63262FC-C3B0-4642-932E-0C775146734E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0EEC5A2A-50D0-4A86-AC65-BF04F4D50501}" type="CELLRANGE">
+                      <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3870,8 +3933,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C907A137-73AF-456C-AC90-D24645318CFE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E3C629D3-78DD-4741-9716-66EE02A54DA2}" type="CELLRANGE">
+                      <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3904,8 +3967,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43187EC6-956B-4D92-9012-F3A78C541F9A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{7EB58AC8-520A-4FBC-A06F-5E930D3B09DC}" type="CELLRANGE">
+                      <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3938,8 +4001,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{090E15C8-EAA7-410F-B1E1-257A7BA14402}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{4A1DE4EC-F5CC-48C6-B300-DC66BF2C7921}" type="CELLRANGE">
+                      <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3972,8 +4035,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C88655E-E129-4186-994F-42870DE87B6C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1DEC0AA7-F723-4D00-A12B-8D2BAD8DDC72}" type="CELLRANGE">
+                      <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4006,8 +4069,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F06CCE27-D54D-4265-908E-AC4786353E72}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0B4E74B4-9A36-46BA-9793-EFA2DB915F8C}" type="CELLRANGE">
+                      <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4040,8 +4103,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FADEF8ED-44A7-4AC4-8F10-7BF8042917B3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D8ACBC5D-D49F-484D-8D72-0B0C13A834D4}" type="CELLRANGE">
+                      <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4074,8 +4137,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EE2AD4B-BB25-4556-AB83-9B2D925BD64F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B24AA96F-272B-4D52-9D59-D9FFD254B535}" type="CELLRANGE">
+                      <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -4161,7 +4224,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$C$9:$C$17</c:f>
+              <c:f>Summary!$C$12:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4197,7 +4260,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$D$9:$D$17</c:f>
+              <c:f>Summary!$D$12:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4235,7 +4298,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Summary!$B$9:$B$17</c15:f>
+                <c15:f>Summary!$B$12:$B$20</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
@@ -4305,7 +4368,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$C$9:$C$17</c:f>
+              <c:f>Summary!$C$12:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4341,7 +4404,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$E$9:$E$17</c:f>
+              <c:f>Summary!$E$12:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4708,7 +4771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4FEDEF1-F443-4BEA-B868-92CD6C1F4D2D}" type="CELLRANGE">
+                    <a:fld id="{CE649ADF-D579-4871-8D00-4598B90C2E16}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4741,7 +4804,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8668CE6F-20E1-4E2F-BFC3-7F74DB5FDA89}" type="CELLRANGE">
+                    <a:fld id="{83952864-B558-40F6-A0EE-AB38D96ABCD0}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4775,7 +4838,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11EF7610-DD3E-41D1-A091-4FF923C2C0B3}" type="CELLRANGE">
+                    <a:fld id="{FCF1161F-CCF0-4CA9-98D2-0F84B0B94A2F}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4809,7 +4872,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58FC6368-477E-4EFD-AA89-1A43BBCD12C6}" type="CELLRANGE">
+                    <a:fld id="{37C6D457-578E-4EEC-B635-6C1EB30252C2}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4843,7 +4906,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A6D9B5B-70B3-4AA5-B079-38C367643DCA}" type="CELLRANGE">
+                    <a:fld id="{CC7E7C32-3893-4A8C-9484-58BCD6900CCD}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4877,7 +4940,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66D7930C-4BF2-4DD8-A90B-4B12F10648B4}" type="CELLRANGE">
+                    <a:fld id="{CC6D9A30-8724-4FD1-AD43-4E5602B36F72}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4911,7 +4974,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1402967E-76F1-4496-B587-70409359F50A}" type="CELLRANGE">
+                    <a:fld id="{88F2FAAE-4B22-49CD-98EC-93A4AB3DEE70}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4945,7 +5008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0EEFCD5-F6F9-4338-8CE8-2800D52A2084}" type="CELLRANGE">
+                    <a:fld id="{81A47224-2381-445E-9E74-FCA6193E9ACE}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4979,7 +5042,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{065B3EA4-E6E3-4FFE-AB2D-22D482EC2FDD}" type="CELLRANGE">
+                    <a:fld id="{2F2516B9-79EE-416F-A086-1034CE860472}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5066,7 +5129,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$C$9:$C$17</c:f>
+              <c:f>Summary!$C$12:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5102,7 +5165,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$F$9:$F$17</c:f>
+              <c:f>Summary!$F$12:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5140,7 +5203,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Summary!$B$9:$B$17</c15:f>
+                <c15:f>Summary!$B$12:$B$20</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
@@ -5210,7 +5273,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Summary!$C$9:$C$17</c:f>
+              <c:f>Summary!$C$12:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5246,7 +5309,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$E$9:$E$17</c:f>
+              <c:f>Summary!$E$12:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5526,7 +5589,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CPI versus SPI</a:t>
+              <a:t>CPI versus SPI across Periods</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5612,7 +5675,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D5B3C85-85BB-4EFE-AD88-EEC327C67C27}" type="CELLRANGE">
+                    <a:fld id="{0D8446F1-1066-48FD-90D9-60A403A70A8B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5645,7 +5708,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B4D4DDC-9B3B-4D82-A76D-3E3822DDBC84}" type="CELLRANGE">
+                    <a:fld id="{62B9AC4A-3F9E-4DAF-8F86-C9F92AACDCB2}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5679,7 +5742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01B46E5B-5FC8-43DF-85F4-91E5301C7FC2}" type="CELLRANGE">
+                    <a:fld id="{2A63A31C-3B29-4B0E-93D4-38B885F4C279}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5713,7 +5776,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4424E279-65D1-4AA1-A667-33CAAACEB4EF}" type="CELLRANGE">
+                    <a:fld id="{5AAA0F94-4390-4CE2-8F08-88D422987B43}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5747,7 +5810,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{433886EC-0AB4-4A51-8E5A-ADD674545602}" type="CELLRANGE">
+                    <a:fld id="{F8410F08-21C9-4B74-A2DB-CF9238CFD2AB}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5781,7 +5844,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A1A6518-9BFA-43E2-8CEB-0FFADB51B815}" type="CELLRANGE">
+                    <a:fld id="{D6FBE62C-F3C4-49E6-A5C2-81017B038908}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5815,7 +5878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{855A9FDD-61C7-4704-A2D4-BD3BA0E5E05C}" type="CELLRANGE">
+                    <a:fld id="{D570238F-28CB-4E8E-B1A9-4E4A869D6386}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5849,7 +5912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A122234-07AF-4DE9-BA68-83363B1FB03C}" type="CELLRANGE">
+                    <a:fld id="{2B9A8EB9-F81F-47D0-860D-7D3349DA8F50}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5883,7 +5946,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7610C0A9-F28E-4BD9-9B84-881728E8F394}" type="CELLRANGE">
+                    <a:fld id="{812D2F37-D34A-4279-8440-FAF56F47A014}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5917,7 +5980,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0355E3A-F3F7-4525-A6B4-9854CA7FA52A}" type="CELLRANGE">
+                    <a:fld id="{B41BA14A-B760-448B-9B2B-2E5643620482}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5951,7 +6014,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50F3AEFC-04E4-427A-8AFB-9F9AD0BDE3B9}" type="CELLRANGE">
+                    <a:fld id="{F3217070-D214-4BD2-9591-0CE1142DAE4E}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5985,7 +6048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D75005F-B277-4025-BDCA-DC2C2F4C768E}" type="CELLRANGE">
+                    <a:fld id="{128EBB02-4BD5-42EB-B39A-B6363E454640}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6634,7 +6697,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DA2DC11-AD9C-425C-AE4E-A04FFE50F533}" type="CELLRANGE">
+                    <a:fld id="{36D92E31-E0F7-4F0F-95B1-5A9FA08D9D2E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6667,7 +6730,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B5B7176-1F70-4E39-AB7E-F4F59F6059B9}" type="CELLRANGE">
+                    <a:fld id="{05079D7E-40AF-47FC-9F9F-95EAE9810BD8}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6701,7 +6764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA0F3A55-1EF4-4907-A637-640D686C12E3}" type="CELLRANGE">
+                    <a:fld id="{7147411D-A4CD-4C03-A60F-7B9F504607CA}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6735,7 +6798,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15680866-BAE2-42D5-AC8B-C0E33032C744}" type="CELLRANGE">
+                    <a:fld id="{900398BC-DBDF-4761-B86F-B0668ECB98B3}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6769,7 +6832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7FE853C-EB0C-45DC-ACEA-DFB19AD60F1C}" type="CELLRANGE">
+                    <a:fld id="{6FBCDA86-4537-4C8A-A7F5-D46672E7955D}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6803,7 +6866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5170409A-C09B-4365-96EA-6015C7B07426}" type="CELLRANGE">
+                    <a:fld id="{B5F7F43D-5F14-4944-AA0D-2E351A09C6B3}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6837,7 +6900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DD99F66-E9EB-4B18-9428-40294B68AC83}" type="CELLRANGE">
+                    <a:fld id="{872F4890-A95B-4623-B12A-C7E7A4966313}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6871,7 +6934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EF889B4-F0CB-4D2F-BFDD-DB7310C9AA57}" type="CELLRANGE">
+                    <a:fld id="{F360457E-4FAF-43C5-9B2B-82912B324E65}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6905,7 +6968,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9AD41DF-6DB3-4F0D-9ADB-E9E7B47239B7}" type="CELLRANGE">
+                    <a:fld id="{F01D3283-409A-48C3-983B-9E41BF02A3F5}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6939,7 +7002,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18CB95AE-76BE-43F6-BEC3-1E8FE6D9D2E7}" type="CELLRANGE">
+                    <a:fld id="{DD863B72-6B09-4B63-89BC-E1ACE41A3E21}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6973,7 +7036,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F047E34B-37B0-44CC-9991-9C23203E5954}" type="CELLRANGE">
+                    <a:fld id="{C9C6C802-FE54-4730-BDF1-13CCA768443C}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7007,7 +7070,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33D9A267-ECBC-479D-B1F2-04F76FEA788A}" type="CELLRANGE">
+                    <a:fld id="{FB8EEB96-BC29-4B78-B20C-30599ADF46F8}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7686,7 +7749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5EE2421-6C83-493B-B00B-07F647E543C4}" type="CELLRANGE">
+                    <a:fld id="{B17F9836-C69E-4B56-B5B4-BE478F267B0C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7719,7 +7782,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C11CD87-50F6-497F-8D2A-CD6C09BEC763}" type="CELLRANGE">
+                    <a:fld id="{9357FEAE-88C4-46DE-9117-17FE2F12C5B6}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7753,7 +7816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{807DC112-3EA5-4317-A146-0D4C4420B9AC}" type="CELLRANGE">
+                    <a:fld id="{14668357-1F27-4B37-8144-EFB0B8458B4C}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7787,7 +7850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A69B009-5051-4E8C-A6B4-CD8C04EEB831}" type="CELLRANGE">
+                    <a:fld id="{8E067757-1B68-4C31-8039-716FDD130D88}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7821,7 +7884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B4D3CBF-E4AD-49E4-AFC4-3912EFB12B73}" type="CELLRANGE">
+                    <a:fld id="{DC22E421-6517-48F1-B5DF-A7C12BE5C472}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7855,7 +7918,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2A911AA-727C-488A-BD44-65D83118CE3E}" type="CELLRANGE">
+                    <a:fld id="{FC10DA27-6E62-4FA7-B07E-A496470CD361}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7889,7 +7952,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88F6F780-C0D1-4B07-97AC-9F82A5ACB105}" type="CELLRANGE">
+                    <a:fld id="{CF3B7546-7E86-4041-9201-1A2A0988C45C}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7923,7 +7986,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BAB6014-EB17-428C-A233-D1F302C518B4}" type="CELLRANGE">
+                    <a:fld id="{38930A18-4FF6-44E5-ADBD-0F6BEB23F344}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7957,7 +8020,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08CCDC41-9B65-4AB0-9D66-4D9EA5012707}" type="CELLRANGE">
+                    <a:fld id="{5ADDE270-AEAD-43A0-A505-C82469B8FEB3}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7991,7 +8054,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A0B9E16-C5C2-4EA6-85D7-55E684DC6AEB}" type="CELLRANGE">
+                    <a:fld id="{C94889A6-37E7-4EF4-A849-28C18D216692}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8025,7 +8088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3565229C-372D-4254-94CF-321B9A5B447A}" type="CELLRANGE">
+                    <a:fld id="{9B61E080-261E-4F0B-A1EA-21341593E61A}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8059,7 +8122,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{441D7C17-BD05-445A-9215-A74EF8EED88C}" type="CELLRANGE">
+                    <a:fld id="{5EDB482E-281C-46BF-9FBF-AAFA95948F97}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13375,13 +13438,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13412,9 +13475,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11124456" cy="1642373"/>
     <xdr:sp macro="" textlink="">
@@ -13430,13 +13493,22 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1171575" y="9725025"/>
+          <a:off x="1152525" y="9667875"/>
           <a:ext cx="11124456" cy="1642373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -13459,11 +13531,11 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-ZA" sz="1100"/>
+            <a:rPr lang="en-ZA" sz="1100" b="0" u="sng"/>
             <a:t>Status</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-ZA" sz="1100" baseline="0"/>
+            <a:rPr lang="en-ZA" sz="1100" b="0" u="sng" baseline="0"/>
             <a:t> Discussion</a:t>
           </a:r>
           <a:br>
@@ -13528,13 +13600,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13564,13 +13636,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14630,414 +14702,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD58B04A-94AF-4785-81D0-8D494DD97AB4}">
-  <dimension ref="B1:T17"/>
+  <dimension ref="B1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+      <c r="B1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" t="s">
         <v>103</v>
       </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="31"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
       <c r="M7" s="31"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="2:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="2:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E11" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F11" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G11" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J11" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="31"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="31">
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="38">
+        <v>1</v>
+      </c>
+      <c r="C12" s="31">
         <v>44327</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D12" s="32">
         <f>'Period 1'!I19</f>
         <v>48200.216800000002</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E12" s="32">
         <f>'Period 1'!L19</f>
         <v>41447.503709810386</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F12" s="32">
         <f>'Period 1'!N19</f>
         <v>50854.92</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G12" s="32">
         <f>'Period 1'!C21</f>
         <v>0.81499999999999995</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H12" s="32">
         <f>'Period 1'!C22</f>
         <v>0.8599</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I12" s="32">
         <f>'Period 1'!C23</f>
         <v>312422.6948</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J12" s="32">
         <f>'Period 1'!C24</f>
         <v>363277.61479999998</v>
       </c>
-      <c r="M9" s="31"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="38">
         <v>2</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C13" s="31">
         <v>44351</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D13" s="32">
         <f>'Period 2'!I25</f>
         <v>91169.028000000006</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E13" s="32">
         <f>'Period 2'!L25</f>
         <v>73997.253333333327</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F13" s="32">
         <f>'Period 2'!N25</f>
         <v>93071.285000000003</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G13" s="32">
         <f>'Period 2'!C27</f>
         <v>0.79510000000000003</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H13" s="32">
         <f>'Period 2'!C28</f>
         <v>0.81159999999999999</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I13" s="32">
         <f>'Period 2'!C29</f>
         <v>279304.17139999999</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J13" s="33">
         <f>'Period 2'!C30</f>
         <v>372375.45640000002</v>
       </c>
-      <c r="M10" s="31"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="38">
         <v>3</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C14" s="31">
         <v>44396</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D14" s="32">
         <f>'Period 3'!I31</f>
         <v>135916.1568</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E14" s="32">
         <f>'Period 3'!L31</f>
         <v>121281.30613979179</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F14" s="32">
         <f>'Period 3'!N31</f>
         <v>152671.48500000002</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G14" s="32">
         <f>'Period 3'!C33</f>
         <v>0.7944</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H14" s="32">
         <f>'Period 3'!C34</f>
         <v>0.89229999999999998</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I14" s="33">
         <f>'Period 3'!C35</f>
         <v>220028.5673</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J14" s="32">
         <f>'Period 3'!C36</f>
         <v>372700.05229999998</v>
       </c>
-      <c r="M11" s="31"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="38">
         <v>4</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C15" s="31">
         <v>44417</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D15" s="32">
         <f>'Period 4'!I36</f>
         <v>156368.55599999998</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E15" s="32">
         <f>'Period 4'!L36</f>
         <v>137728.05103668262</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F15" s="32">
         <f>'Period 4'!N36</f>
         <v>172691.79</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G15" s="32">
         <f>'Period 4'!C38</f>
         <v>0.79749999999999999</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H15" s="32">
         <f>'Period 4'!C39</f>
         <v>0.88080000000000003</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I15" s="32">
         <f>'Period 4'!C40</f>
         <v>198550.4062</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J15" s="32">
         <f>'Period 4'!C41</f>
         <v>371242.19620000001</v>
       </c>
-      <c r="M12" s="31"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="38">
         <v>5</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C16" s="31">
         <v>44440</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D16" s="32">
         <f>'Period 5'!I42</f>
         <v>188639.92</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E16" s="32">
         <f>'Period 5'!L42</f>
         <v>159835.41176470587</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F16" s="32">
         <f>'Period 5'!N42</f>
         <v>198891.19</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G16" s="32">
         <f>'Period 5'!C44</f>
         <v>0.80359999999999998</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H16" s="32">
         <f>'Period 5'!C45</f>
         <v>0.84730000000000005</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I16" s="32">
         <f>'Period 5'!C46</f>
         <v>169532.83749999999</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J16" s="32">
         <f>'Period 5'!C47</f>
         <v>368424.02749999997</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="M16" s="31"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="38">
         <v>6</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C17" s="31">
         <v>44460</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D17" s="32">
         <f>'Period 6'!I54</f>
         <v>213560.12160000001</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E17" s="32">
         <f>'Period 6'!L54</f>
         <v>187248.92322580644</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F17" s="32">
         <f>'Period 6'!N54</f>
         <v>238029.06000000003</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G17" s="32">
         <f>'Period 6'!C56</f>
         <v>0.78669999999999995</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H17" s="32">
         <f>'Period 6'!C57</f>
         <v>0.87680000000000002</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I17" s="32">
         <f>'Period 6'!C58</f>
         <v>138328.5582</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J17" s="32">
         <f>'Period 6'!C59</f>
         <v>376357.61820000003</v>
       </c>
-      <c r="M14" s="31"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="38">
         <v>7</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C18" s="31">
         <v>44495</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D18" s="32">
         <f>'Period 7'!I65</f>
         <v>257839.92</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E18" s="32">
         <f>'Period 7'!L65</f>
         <v>209428.6740611014</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F18" s="32">
         <f>'Period 7'!N65</f>
         <v>271402.20126289164</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G18" s="32">
         <f>'Period 7'!C68</f>
         <v>0.77170000000000005</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H18" s="32">
         <f>'Period 7'!C69</f>
         <v>0.81220000000000003</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I18" s="32">
         <f>'Period 7'!C70</f>
         <v>112275.91800000001</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J18" s="32">
         <f>'Period 7'!C71</f>
         <v>383678.11926289165</v>
       </c>
-      <c r="M15" s="31"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="38">
         <v>8</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C19" s="31">
         <v>44519</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D19" s="32">
         <f>'Period 8'!I71</f>
         <v>267119.75599999999</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E19" s="32">
         <f>'Period 8'!L71</f>
         <v>232342.09969132772</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F19" s="32">
         <f>'Period 8'!N71</f>
         <v>303330.60263752454</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G19" s="32">
         <f>'Period 8'!C74</f>
         <v>0.76600000000000001</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H19" s="32">
         <f>'Period 8'!C75</f>
         <v>0.86980000000000002</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I19" s="32">
         <f>'Period 8'!C76</f>
         <v>83198.3033</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J19" s="32">
         <f>'Period 8'!C77</f>
         <v>386528.90593752451</v>
       </c>
-      <c r="M16" s="31"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="38">
         <v>9</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C20" s="31">
         <v>44533</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D20" s="32">
         <f>'Period 9'!I71</f>
         <v>280120.13199999998</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E20" s="32">
         <f>'Period 9'!L71</f>
         <v>243286.36908667331</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F20" s="32">
         <f>'Period 9'!N71</f>
         <v>316883.53416666668</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G20" s="32">
         <f>'Period 9'!C74</f>
         <v>0.76770000000000005</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H20" s="32">
         <f>'Period 9'!C75</f>
         <v>0.86850000000000005</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I20" s="32">
         <f>'Period 9'!C76</f>
         <v>68758.1489</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J20" s="33">
         <f>'Period 9'!C77</f>
         <v>385641.68306666671</v>
       </c>
@@ -17059,7 +17208,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="33">
-        <f>IF(AND(C46&lt;$D$3,D46=0,MIN($C$45)),1,IF(AND(C46&gt;$D$3,D46=0),0,IF(((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46)&lt;0,0,IF((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46&gt;1,1,(NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46))))</f>
+        <f t="shared" ref="K46:K51" si="7">IF(AND(C46&lt;$D$3,D46=0,MIN($C$45)),1,IF(AND(C46&gt;$D$3,D46=0),0,IF(((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46)&lt;0,0,IF((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46&gt;1,1,(NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46))))</f>
         <v>0</v>
       </c>
       <c r="L46" s="1">
@@ -17106,7 +17255,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="33">
-        <f>IF(AND(C47&lt;$D$3,D47=0,MIN($C$45)),1,IF(AND(C47&gt;$D$3,D47=0),0,IF(((NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47)&lt;0,0,IF((NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47&gt;1,1,(NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L47" s="1">
@@ -17153,7 +17302,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="33">
-        <f>IF(AND(C48&lt;$D$3,D48=0,MIN($C$45)),1,IF(AND(C48&gt;$D$3,D48=0),0,IF(((NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48)&lt;0,0,IF((NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48&gt;1,1,(NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L48" s="1">
@@ -17200,7 +17349,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="33">
-        <f>IF(AND(C49&lt;$D$3,D49=0,MIN($C$45)),1,IF(AND(C49&gt;$D$3,D49=0),0,IF(((NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49)&lt;0,0,IF((NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49&gt;1,1,(NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L49" s="1">
@@ -17247,7 +17396,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="33">
-        <f>IF(AND(C50&lt;$D$3,D50=0,MIN($C$45)),1,IF(AND(C50&gt;$D$3,D50=0),0,IF(((NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50)&lt;0,0,IF((NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50&gt;1,1,(NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L50" s="1">
@@ -17294,7 +17443,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="33">
-        <f>IF(AND(C51&lt;$D$3,D51=0,MIN($C$45)),1,IF(AND(C51&gt;$D$3,D51=0),0,IF(((NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51)&lt;0,0,IF((NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51&gt;1,1,(NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L51" s="1">
@@ -17557,18 +17706,18 @@
         <v>44533.348611111112</v>
       </c>
       <c r="F57" s="29">
-        <f t="shared" ref="F57:F63" si="7">NETWORKDAYS(C57,$D$3)</f>
+        <f t="shared" ref="F57:F63" si="8">NETWORKDAYS(C57,$D$3)</f>
         <v>-33</v>
       </c>
       <c r="G57" s="18" t="str">
-        <f t="shared" ref="G57" si="8">IF(F57&gt;D57,"Complete","Busy")</f>
+        <f t="shared" ref="G57" si="9">IF(F57&gt;D57,"Complete","Busy")</f>
         <v>Busy</v>
       </c>
       <c r="H57" s="17">
         <v>0</v>
       </c>
       <c r="I57" s="17">
-        <f t="shared" ref="I57" si="9">J57*H57</f>
+        <f t="shared" ref="I57" si="10">J57*H57</f>
         <v>0</v>
       </c>
       <c r="J57" s="17">
@@ -17585,7 +17734,7 @@
         <v>240</v>
       </c>
       <c r="N57" s="17">
-        <f t="shared" ref="N57:N63" si="10">M57*K57</f>
+        <f t="shared" ref="N57:N63" si="11">M57*K57</f>
         <v>0</v>
       </c>
     </row>
@@ -17603,7 +17752,7 @@
         <v>44551.556944444441</v>
       </c>
       <c r="F58" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-33</v>
       </c>
       <c r="G58" s="1" t="str">
@@ -17633,7 +17782,7 @@
         <v>7500</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P58" s="7">
@@ -17661,7 +17810,7 @@
         <v>44545.431944444441</v>
       </c>
       <c r="F59" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-33</v>
       </c>
       <c r="G59" s="1" t="str">
@@ -17689,7 +17838,7 @@
         <v>4455</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P59" s="7"/>
@@ -17708,7 +17857,7 @@
         <v>44550.6</v>
       </c>
       <c r="F60" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41</v>
       </c>
       <c r="G60" s="1" t="str">
@@ -17737,7 +17886,7 @@
         <v>2636</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17755,7 +17904,7 @@
         <v>44545.431944444441</v>
       </c>
       <c r="F61" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-33</v>
       </c>
       <c r="G61" s="1" t="str">
@@ -17785,7 +17934,7 @@
         <v>3646.5</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P61" s="7">
@@ -17813,7 +17962,7 @@
         <v>44540.6</v>
       </c>
       <c r="F62" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-33</v>
       </c>
       <c r="G62" s="1" t="str">
@@ -17843,7 +17992,7 @@
         <v>4391.3999999999996</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P62" s="7">
@@ -17871,18 +18020,18 @@
         <v>44551.556944444441</v>
       </c>
       <c r="F63" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-45</v>
       </c>
       <c r="G63" s="18" t="str">
-        <f t="shared" ref="G63" si="11">IF(F63&gt;D63,"Complete","Busy")</f>
+        <f t="shared" ref="G63" si="12">IF(F63&gt;D63,"Complete","Busy")</f>
         <v>Busy</v>
       </c>
       <c r="H63" s="17">
         <v>0</v>
       </c>
       <c r="I63" s="17">
-        <f t="shared" ref="I63" si="12">J63*H63</f>
+        <f t="shared" ref="I63" si="13">J63*H63</f>
         <v>0</v>
       </c>
       <c r="J63" s="17">
@@ -17899,7 +18048,7 @@
         <v>40</v>
       </c>
       <c r="N63" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23600,7 +23749,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="33">
-        <f>IF(AND(C46&lt;$D$3,D46=0,MIN($C$45)),1,IF(AND(C46&gt;$D$3,D46=0),0,IF(((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46)&lt;0,0,IF((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46&gt;1,1,(NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46))))</f>
+        <f t="shared" ref="K46:K51" si="7">IF(AND(C46&lt;$D$3,D46=0,MIN($C$45)),1,IF(AND(C46&gt;$D$3,D46=0),0,IF(((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46)&lt;0,0,IF((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46&gt;1,1,(NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46))))</f>
         <v>1</v>
       </c>
       <c r="L46" s="1">
@@ -23647,7 +23796,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="33">
-        <f>IF(AND(C47&lt;$D$3,D47=0,MIN($C$45)),1,IF(AND(C47&gt;$D$3,D47=0),0,IF(((NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47)&lt;0,0,IF((NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47&gt;1,1,(NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L47" s="1">
@@ -23694,7 +23843,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="33">
-        <f>IF(AND(C48&lt;$D$3,D48=0,MIN($C$45)),1,IF(AND(C48&gt;$D$3,D48=0),0,IF(((NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48)&lt;0,0,IF((NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48&gt;1,1,(NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L48" s="1">
@@ -23741,7 +23890,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="33">
-        <f>IF(AND(C49&lt;$D$3,D49=0,MIN($C$45)),1,IF(AND(C49&gt;$D$3,D49=0),0,IF(((NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49)&lt;0,0,IF((NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49&gt;1,1,(NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L49" s="1">
@@ -23788,7 +23937,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="33">
-        <f>IF(AND(C50&lt;$D$3,D50=0,MIN($C$45)),1,IF(AND(C50&gt;$D$3,D50=0),0,IF(((NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50)&lt;0,0,IF((NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50&gt;1,1,(NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L50" s="1">
@@ -23835,7 +23984,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="33">
-        <f>IF(AND(C51&lt;$D$3,D51=0,MIN($C$45)),1,IF(AND(C51&gt;$D$3,D51=0),0,IF(((NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51)&lt;0,0,IF((NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51&gt;1,1,(NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L51" s="1">
@@ -26987,7 +27136,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="33">
-        <f>IF(AND(C46&lt;$D$3,D46=0,MIN($C$45)),1,IF(AND(C46&gt;$D$3,D46=0),0,IF(((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46)&lt;0,0,IF((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46&gt;1,1,(NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46))))</f>
+        <f t="shared" ref="K46:K51" si="7">IF(AND(C46&lt;$D$3,D46=0,MIN($C$45)),1,IF(AND(C46&gt;$D$3,D46=0),0,IF(((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46)&lt;0,0,IF((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46&gt;1,1,(NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46))))</f>
         <v>1</v>
       </c>
       <c r="L46" s="1">
@@ -27034,7 +27183,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="33">
-        <f>IF(AND(C47&lt;$D$3,D47=0,MIN($C$45)),1,IF(AND(C47&gt;$D$3,D47=0),0,IF(((NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47)&lt;0,0,IF((NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47&gt;1,1,(NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L47" s="1">
@@ -27081,7 +27230,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="33">
-        <f>IF(AND(C48&lt;$D$3,D48=0,MIN($C$45)),1,IF(AND(C48&gt;$D$3,D48=0),0,IF(((NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48)&lt;0,0,IF((NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48&gt;1,1,(NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L48" s="1">
@@ -27128,7 +27277,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="33">
-        <f>IF(AND(C49&lt;$D$3,D49=0,MIN($C$45)),1,IF(AND(C49&gt;$D$3,D49=0),0,IF(((NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49)&lt;0,0,IF((NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49&gt;1,1,(NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L49" s="1">
@@ -27175,7 +27324,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="33">
-        <f>IF(AND(C50&lt;$D$3,D50=0,MIN($C$45)),1,IF(AND(C50&gt;$D$3,D50=0),0,IF(((NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50)&lt;0,0,IF((NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50&gt;1,1,(NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L50" s="1">
@@ -27222,7 +27371,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="33">
-        <f>IF(AND(C51&lt;$D$3,D51=0,MIN($C$45)),1,IF(AND(C51&gt;$D$3,D51=0),0,IF(((NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51)&lt;0,0,IF((NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51&gt;1,1,(NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L51" s="1">
@@ -28121,7 +28270,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="33">
-        <f>IF(AND(C70&lt;$D$3,D70=0,MIN($C$69)),1,IF(AND(C70&gt;$D$3,D70=0),0,IF(((NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70)&lt;0,0,IF((NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70&gt;1,1,(NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70))))</f>
+        <f t="shared" ref="K70:K75" si="8">IF(AND(C70&lt;$D$3,D70=0,MIN($C$69)),1,IF(AND(C70&gt;$D$3,D70=0),0,IF(((NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70)&lt;0,0,IF((NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70&gt;1,1,(NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70))))</f>
         <v>0</v>
       </c>
       <c r="L70" s="1">
@@ -28178,11 +28327,11 @@
         <v>0</v>
       </c>
       <c r="K71" s="33">
-        <f>IF(AND(C71&lt;$D$3,D71=0,MIN($C$69)),1,IF(AND(C71&gt;$D$3,D71=0),0,IF(((NETWORKDAYS(C71,$D$3)-1+(HOUR($D$3)-HOUR(C71)-IF(AND(HOUR(C71)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C71))/(60*8))/D71)&lt;0,0,IF((NETWORKDAYS(C71,$D$3)-1+(HOUR($D$3)-HOUR(C71)-IF(AND(HOUR(C71)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C71))/(60*8))/D71&gt;1,1,(NETWORKDAYS(C71,$D$3)-1+(HOUR($D$3)-HOUR(C71)-IF(AND(HOUR(C71)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C71))/(60*8))/D71))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" ref="L71:L76" si="7">I71*K71</f>
+        <f t="shared" ref="L71:L76" si="9">I71*K71</f>
         <v>0</v>
       </c>
       <c r="M71" s="1">
@@ -28225,11 +28374,11 @@
         <v>0</v>
       </c>
       <c r="K72" s="33">
-        <f>IF(AND(C72&lt;$D$3,D72=0,MIN($C$69)),1,IF(AND(C72&gt;$D$3,D72=0),0,IF(((NETWORKDAYS(C72,$D$3)-1+(HOUR($D$3)-HOUR(C72)-IF(AND(HOUR(C72)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C72))/(60*8))/D72)&lt;0,0,IF((NETWORKDAYS(C72,$D$3)-1+(HOUR($D$3)-HOUR(C72)-IF(AND(HOUR(C72)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C72))/(60*8))/D72&gt;1,1,(NETWORKDAYS(C72,$D$3)-1+(HOUR($D$3)-HOUR(C72)-IF(AND(HOUR(C72)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C72))/(60*8))/D72))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M72" s="1">
@@ -28272,11 +28421,11 @@
         <v>0</v>
       </c>
       <c r="K73" s="33">
-        <f>IF(AND(C73&lt;$D$3,D73=0,MIN($C$69)),1,IF(AND(C73&gt;$D$3,D73=0),0,IF(((NETWORKDAYS(C73,$D$3)-1+(HOUR($D$3)-HOUR(C73)-IF(AND(HOUR(C73)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C73))/(60*8))/D73)&lt;0,0,IF((NETWORKDAYS(C73,$D$3)-1+(HOUR($D$3)-HOUR(C73)-IF(AND(HOUR(C73)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C73))/(60*8))/D73&gt;1,1,(NETWORKDAYS(C73,$D$3)-1+(HOUR($D$3)-HOUR(C73)-IF(AND(HOUR(C73)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C73))/(60*8))/D73))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M73" s="1">
@@ -28319,11 +28468,11 @@
         <v>0</v>
       </c>
       <c r="K74" s="33">
-        <f>IF(AND(C74&lt;$D$3,D74=0,MIN($C$69)),1,IF(AND(C74&gt;$D$3,D74=0),0,IF(((NETWORKDAYS(C74,$D$3)-1+(HOUR($D$3)-HOUR(C74)-IF(AND(HOUR(C74)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C74))/(60*8))/D74)&lt;0,0,IF((NETWORKDAYS(C74,$D$3)-1+(HOUR($D$3)-HOUR(C74)-IF(AND(HOUR(C74)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C74))/(60*8))/D74&gt;1,1,(NETWORKDAYS(C74,$D$3)-1+(HOUR($D$3)-HOUR(C74)-IF(AND(HOUR(C74)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C74))/(60*8))/D74))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M74" s="1">
@@ -28367,11 +28516,11 @@
         <v>0.2</v>
       </c>
       <c r="K75" s="33">
-        <f>IF(AND(C75&lt;$D$3,D75=0,MIN($C$69)),1,IF(AND(C75&gt;$D$3,D75=0),0,IF(((NETWORKDAYS(C75,$D$3)-1+(HOUR($D$3)-HOUR(C75)-IF(AND(HOUR(C75)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C75))/(60*8))/D75)&lt;0,0,IF((NETWORKDAYS(C75,$D$3)-1+(HOUR($D$3)-HOUR(C75)-IF(AND(HOUR(C75)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C75))/(60*8))/D75&gt;1,1,(NETWORKDAYS(C75,$D$3)-1+(HOUR($D$3)-HOUR(C75)-IF(AND(HOUR(C75)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C75))/(60*8))/D75))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M75" s="1">
@@ -28406,18 +28555,18 @@
         <v>44599.666666666664</v>
       </c>
       <c r="F76" s="29">
-        <f t="shared" ref="F76" si="8">NETWORKDAYS(C76,$D$3)</f>
+        <f t="shared" ref="F76" si="10">NETWORKDAYS(C76,$D$3)</f>
         <v>-39</v>
       </c>
       <c r="G76" s="18" t="str">
-        <f t="shared" ref="G76" si="9">IF(F76&gt;D76,"Complete","Busy")</f>
+        <f t="shared" ref="G76" si="11">IF(F76&gt;D76,"Complete","Busy")</f>
         <v>Busy</v>
       </c>
       <c r="H76" s="17">
         <v>0</v>
       </c>
       <c r="I76" s="17">
-        <f t="shared" ref="I76" si="10">J76*H76</f>
+        <f t="shared" ref="I76" si="12">J76*H76</f>
         <v>0</v>
       </c>
       <c r="J76" s="17">
@@ -28427,14 +28576,14 @@
         <v>0</v>
       </c>
       <c r="L76" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M76" s="19">
         <v>0</v>
       </c>
       <c r="N76" s="17">
-        <f t="shared" ref="N76" si="11">M76*K76</f>
+        <f t="shared" ref="N76" si="13">M76*K76</f>
         <v>0</v>
       </c>
     </row>
@@ -30696,7 +30845,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="33">
-        <f>IF(AND(C46&lt;$D$3,D46=0,MIN($C$45)),1,IF(AND(C46&gt;$D$3,D46=0),0,IF(((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46)&lt;0,0,IF((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46&gt;1,1,(NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46))))</f>
+        <f t="shared" ref="K46:K51" si="6">IF(AND(C46&lt;$D$3,D46=0,MIN($C$45)),1,IF(AND(C46&gt;$D$3,D46=0),0,IF(((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46)&lt;0,0,IF((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46&gt;1,1,(NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46))))</f>
         <v>1</v>
       </c>
       <c r="L46" s="1">
@@ -30743,7 +30892,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="33">
-        <f>IF(AND(C47&lt;$D$3,D47=0,MIN($C$45)),1,IF(AND(C47&gt;$D$3,D47=0),0,IF(((NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47)&lt;0,0,IF((NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47&gt;1,1,(NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L47" s="1">
@@ -30790,7 +30939,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="33">
-        <f>IF(AND(C48&lt;$D$3,D48=0,MIN($C$45)),1,IF(AND(C48&gt;$D$3,D48=0),0,IF(((NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48)&lt;0,0,IF((NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48&gt;1,1,(NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L48" s="1">
@@ -30837,7 +30986,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="33">
-        <f>IF(AND(C49&lt;$D$3,D49=0,MIN($C$45)),1,IF(AND(C49&gt;$D$3,D49=0),0,IF(((NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49)&lt;0,0,IF((NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49&gt;1,1,(NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L49" s="1">
@@ -30884,7 +31033,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="33">
-        <f>IF(AND(C50&lt;$D$3,D50=0,MIN($C$45)),1,IF(AND(C50&gt;$D$3,D50=0),0,IF(((NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50)&lt;0,0,IF((NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50&gt;1,1,(NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L50" s="1">
@@ -30931,7 +31080,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="33">
-        <f>IF(AND(C51&lt;$D$3,D51=0,MIN($C$45)),1,IF(AND(C51&gt;$D$3,D51=0),0,IF(((NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51)&lt;0,0,IF((NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51&gt;1,1,(NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L51" s="1">
@@ -31829,7 +31978,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="33">
-        <f>IF(AND(C70&lt;$D$3,D70=0,MIN($C$69)),1,IF(AND(C70&gt;$D$3,D70=0),0,IF(((NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70)&lt;0,0,IF((NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70&gt;1,1,(NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70))))</f>
+        <f t="shared" ref="K70:K75" si="7">IF(AND(C70&lt;$D$3,D70=0,MIN($C$69)),1,IF(AND(C70&gt;$D$3,D70=0),0,IF(((NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70)&lt;0,0,IF((NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70&gt;1,1,(NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70))))</f>
         <v>0</v>
       </c>
       <c r="L70" s="1">
@@ -31877,11 +32026,11 @@
         <v>1</v>
       </c>
       <c r="K71" s="33">
-        <f>IF(AND(C71&lt;$D$3,D71=0,MIN($C$69)),1,IF(AND(C71&gt;$D$3,D71=0),0,IF(((NETWORKDAYS(C71,$D$3)-1+(HOUR($D$3)-HOUR(C71)-IF(AND(HOUR(C71)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C71))/(60*8))/D71)&lt;0,0,IF((NETWORKDAYS(C71,$D$3)-1+(HOUR($D$3)-HOUR(C71)-IF(AND(HOUR(C71)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C71))/(60*8))/D71&gt;1,1,(NETWORKDAYS(C71,$D$3)-1+(HOUR($D$3)-HOUR(C71)-IF(AND(HOUR(C71)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C71))/(60*8))/D71))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" ref="L71:L76" si="6">I71*K71</f>
+        <f t="shared" ref="L71:L76" si="8">I71*K71</f>
         <v>0</v>
       </c>
       <c r="M71" s="1">
@@ -31924,11 +32073,11 @@
         <v>1</v>
       </c>
       <c r="K72" s="33">
-        <f>IF(AND(C72&lt;$D$3,D72=0,MIN($C$69)),1,IF(AND(C72&gt;$D$3,D72=0),0,IF(((NETWORKDAYS(C72,$D$3)-1+(HOUR($D$3)-HOUR(C72)-IF(AND(HOUR(C72)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C72))/(60*8))/D72)&lt;0,0,IF((NETWORKDAYS(C72,$D$3)-1+(HOUR($D$3)-HOUR(C72)-IF(AND(HOUR(C72)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C72))/(60*8))/D72&gt;1,1,(NETWORKDAYS(C72,$D$3)-1+(HOUR($D$3)-HOUR(C72)-IF(AND(HOUR(C72)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C72))/(60*8))/D72))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M72" s="1">
@@ -31971,11 +32120,11 @@
         <v>1</v>
       </c>
       <c r="K73" s="33">
-        <f>IF(AND(C73&lt;$D$3,D73=0,MIN($C$69)),1,IF(AND(C73&gt;$D$3,D73=0),0,IF(((NETWORKDAYS(C73,$D$3)-1+(HOUR($D$3)-HOUR(C73)-IF(AND(HOUR(C73)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C73))/(60*8))/D73)&lt;0,0,IF((NETWORKDAYS(C73,$D$3)-1+(HOUR($D$3)-HOUR(C73)-IF(AND(HOUR(C73)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C73))/(60*8))/D73&gt;1,1,(NETWORKDAYS(C73,$D$3)-1+(HOUR($D$3)-HOUR(C73)-IF(AND(HOUR(C73)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C73))/(60*8))/D73))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M73" s="1">
@@ -32018,11 +32167,11 @@
         <v>1</v>
       </c>
       <c r="K74" s="33">
-        <f>IF(AND(C74&lt;$D$3,D74=0,MIN($C$69)),1,IF(AND(C74&gt;$D$3,D74=0),0,IF(((NETWORKDAYS(C74,$D$3)-1+(HOUR($D$3)-HOUR(C74)-IF(AND(HOUR(C74)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C74))/(60*8))/D74)&lt;0,0,IF((NETWORKDAYS(C74,$D$3)-1+(HOUR($D$3)-HOUR(C74)-IF(AND(HOUR(C74)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C74))/(60*8))/D74&gt;1,1,(NETWORKDAYS(C74,$D$3)-1+(HOUR($D$3)-HOUR(C74)-IF(AND(HOUR(C74)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C74))/(60*8))/D74))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M74" s="1">
@@ -32065,11 +32214,11 @@
         <v>1</v>
       </c>
       <c r="K75" s="33">
-        <f>IF(AND(C75&lt;$D$3,D75=0,MIN($C$69)),1,IF(AND(C75&gt;$D$3,D75=0),0,IF(((NETWORKDAYS(C75,$D$3)-1+(HOUR($D$3)-HOUR(C75)-IF(AND(HOUR(C75)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C75))/(60*8))/D75)&lt;0,0,IF((NETWORKDAYS(C75,$D$3)-1+(HOUR($D$3)-HOUR(C75)-IF(AND(HOUR(C75)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C75))/(60*8))/D75&gt;1,1,(NETWORKDAYS(C75,$D$3)-1+(HOUR($D$3)-HOUR(C75)-IF(AND(HOUR(C75)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C75))/(60*8))/D75))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M75" s="1">
@@ -32095,11 +32244,11 @@
         <v>44599.666666666664</v>
       </c>
       <c r="F76" s="29">
-        <f t="shared" ref="F76" si="7">NETWORKDAYS(C76,$D$3)</f>
+        <f t="shared" ref="F76" si="9">NETWORKDAYS(C76,$D$3)</f>
         <v>-19</v>
       </c>
       <c r="G76" s="18" t="str">
-        <f t="shared" ref="G76" si="8">IF(F76&gt;D76,"Complete","Busy")</f>
+        <f t="shared" ref="G76" si="10">IF(F76&gt;D76,"Complete","Busy")</f>
         <v>Busy</v>
       </c>
       <c r="H76" s="17">
@@ -32116,14 +32265,14 @@
         <v>0</v>
       </c>
       <c r="L76" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M76" s="19">
         <v>0</v>
       </c>
       <c r="N76" s="17">
-        <f t="shared" ref="N76" si="9">M76*K76</f>
+        <f t="shared" ref="N76" si="11">M76*K76</f>
         <v>0</v>
       </c>
     </row>
@@ -34385,7 +34534,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="33">
-        <f>IF(AND(C46&lt;$D$3,D46=0,MIN($C$45)),1,IF(AND(C46&gt;$D$3,D46=0),0,IF(((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46)&lt;0,0,IF((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46&gt;1,1,(NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46))))</f>
+        <f t="shared" ref="K46:K51" si="6">IF(AND(C46&lt;$D$3,D46=0,MIN($C$45)),1,IF(AND(C46&gt;$D$3,D46=0),0,IF(((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46)&lt;0,0,IF((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46&gt;1,1,(NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46))))</f>
         <v>1</v>
       </c>
       <c r="L46" s="1">
@@ -34432,7 +34581,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="33">
-        <f>IF(AND(C47&lt;$D$3,D47=0,MIN($C$45)),1,IF(AND(C47&gt;$D$3,D47=0),0,IF(((NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47)&lt;0,0,IF((NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47&gt;1,1,(NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L47" s="1">
@@ -34479,7 +34628,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="33">
-        <f>IF(AND(C48&lt;$D$3,D48=0,MIN($C$45)),1,IF(AND(C48&gt;$D$3,D48=0),0,IF(((NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48)&lt;0,0,IF((NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48&gt;1,1,(NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L48" s="1">
@@ -34526,7 +34675,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="33">
-        <f>IF(AND(C49&lt;$D$3,D49=0,MIN($C$45)),1,IF(AND(C49&gt;$D$3,D49=0),0,IF(((NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49)&lt;0,0,IF((NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49&gt;1,1,(NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L49" s="1">
@@ -34573,7 +34722,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="33">
-        <f>IF(AND(C50&lt;$D$3,D50=0,MIN($C$45)),1,IF(AND(C50&gt;$D$3,D50=0),0,IF(((NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50)&lt;0,0,IF((NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50&gt;1,1,(NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L50" s="1">
@@ -34620,7 +34769,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="33">
-        <f>IF(AND(C51&lt;$D$3,D51=0,MIN($C$45)),1,IF(AND(C51&gt;$D$3,D51=0),0,IF(((NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51)&lt;0,0,IF((NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51&gt;1,1,(NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L51" s="1">
@@ -35518,7 +35667,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="33">
-        <f>IF(AND(C70&lt;$D$3,D70=0,MIN($C$69)),1,IF(AND(C70&gt;$D$3,D70=0),0,IF(((NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70)&lt;0,0,IF((NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70&gt;1,1,(NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70))))</f>
+        <f t="shared" ref="K70:K75" si="7">IF(AND(C70&lt;$D$3,D70=0,MIN($C$69)),1,IF(AND(C70&gt;$D$3,D70=0),0,IF(((NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70)&lt;0,0,IF((NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70&gt;1,1,(NETWORKDAYS(C70,$D$3)-1+(HOUR($D$3)-HOUR(C70)-IF(AND(HOUR(C70)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C70))/(60*8))/D70))))</f>
         <v>1</v>
       </c>
       <c r="L70" s="1">
@@ -35566,11 +35715,11 @@
         <v>1</v>
       </c>
       <c r="K71" s="33">
-        <f>IF(AND(C71&lt;$D$3,D71=0,MIN($C$69)),1,IF(AND(C71&gt;$D$3,D71=0),0,IF(((NETWORKDAYS(C71,$D$3)-1+(HOUR($D$3)-HOUR(C71)-IF(AND(HOUR(C71)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C71))/(60*8))/D71)&lt;0,0,IF((NETWORKDAYS(C71,$D$3)-1+(HOUR($D$3)-HOUR(C71)-IF(AND(HOUR(C71)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C71))/(60*8))/D71&gt;1,1,(NETWORKDAYS(C71,$D$3)-1+(HOUR($D$3)-HOUR(C71)-IF(AND(HOUR(C71)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C71))/(60*8))/D71))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" ref="L71:L76" si="6">I71*K71</f>
+        <f t="shared" ref="L71:L76" si="8">I71*K71</f>
         <v>2000</v>
       </c>
       <c r="M71" s="1">
@@ -35613,11 +35762,11 @@
         <v>1</v>
       </c>
       <c r="K72" s="33">
-        <f>IF(AND(C72&lt;$D$3,D72=0,MIN($C$69)),1,IF(AND(C72&gt;$D$3,D72=0),0,IF(((NETWORKDAYS(C72,$D$3)-1+(HOUR($D$3)-HOUR(C72)-IF(AND(HOUR(C72)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C72))/(60*8))/D72)&lt;0,0,IF((NETWORKDAYS(C72,$D$3)-1+(HOUR($D$3)-HOUR(C72)-IF(AND(HOUR(C72)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C72))/(60*8))/D72&gt;1,1,(NETWORKDAYS(C72,$D$3)-1+(HOUR($D$3)-HOUR(C72)-IF(AND(HOUR(C72)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C72))/(60*8))/D72))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1600</v>
       </c>
       <c r="M72" s="1">
@@ -35660,11 +35809,11 @@
         <v>1</v>
       </c>
       <c r="K73" s="33">
-        <f>IF(AND(C73&lt;$D$3,D73=0,MIN($C$69)),1,IF(AND(C73&gt;$D$3,D73=0),0,IF(((NETWORKDAYS(C73,$D$3)-1+(HOUR($D$3)-HOUR(C73)-IF(AND(HOUR(C73)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C73))/(60*8))/D73)&lt;0,0,IF((NETWORKDAYS(C73,$D$3)-1+(HOUR($D$3)-HOUR(C73)-IF(AND(HOUR(C73)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C73))/(60*8))/D73&gt;1,1,(NETWORKDAYS(C73,$D$3)-1+(HOUR($D$3)-HOUR(C73)-IF(AND(HOUR(C73)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C73))/(60*8))/D73))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1200</v>
       </c>
       <c r="M73" s="1">
@@ -35707,11 +35856,11 @@
         <v>1</v>
       </c>
       <c r="K74" s="33">
-        <f>IF(AND(C74&lt;$D$3,D74=0,MIN($C$69)),1,IF(AND(C74&gt;$D$3,D74=0),0,IF(((NETWORKDAYS(C74,$D$3)-1+(HOUR($D$3)-HOUR(C74)-IF(AND(HOUR(C74)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C74))/(60*8))/D74)&lt;0,0,IF((NETWORKDAYS(C74,$D$3)-1+(HOUR($D$3)-HOUR(C74)-IF(AND(HOUR(C74)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C74))/(60*8))/D74&gt;1,1,(NETWORKDAYS(C74,$D$3)-1+(HOUR($D$3)-HOUR(C74)-IF(AND(HOUR(C74)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C74))/(60*8))/D74))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1512</v>
       </c>
       <c r="M74" s="1">
@@ -35754,11 +35903,11 @@
         <v>1</v>
       </c>
       <c r="K75" s="33">
-        <f>IF(AND(C75&lt;$D$3,D75=0,MIN($C$69)),1,IF(AND(C75&gt;$D$3,D75=0),0,IF(((NETWORKDAYS(C75,$D$3)-1+(HOUR($D$3)-HOUR(C75)-IF(AND(HOUR(C75)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C75))/(60*8))/D75)&lt;0,0,IF((NETWORKDAYS(C75,$D$3)-1+(HOUR($D$3)-HOUR(C75)-IF(AND(HOUR(C75)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C75))/(60*8))/D75&gt;1,1,(NETWORKDAYS(C75,$D$3)-1+(HOUR($D$3)-HOUR(C75)-IF(AND(HOUR(C75)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C75))/(60*8))/D75))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4400</v>
       </c>
       <c r="M75" s="1">
@@ -35784,11 +35933,11 @@
         <v>44599.666666666664</v>
       </c>
       <c r="F76" s="18">
-        <f t="shared" ref="F76" si="7">NETWORKDAYS(C76,$D$3)</f>
+        <f t="shared" ref="F76" si="9">NETWORKDAYS(C76,$D$3)</f>
         <v>1</v>
       </c>
       <c r="G76" s="18" t="str">
-        <f t="shared" ref="G76" si="8">IF(F76&gt;D76,"Complete","Busy")</f>
+        <f t="shared" ref="G76" si="10">IF(F76&gt;D76,"Complete","Busy")</f>
         <v>Complete</v>
       </c>
       <c r="H76" s="17">
@@ -35805,14 +35954,14 @@
         <v>1</v>
       </c>
       <c r="L76" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M76" s="19">
         <v>0</v>
       </c>
       <c r="N76" s="17">
-        <f t="shared" ref="N76" si="9">M76*K76</f>
+        <f t="shared" ref="N76" si="11">M76*K76</f>
         <v>0</v>
       </c>
     </row>
@@ -36013,8 +36162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C264E-EB05-45C7-8F10-4283D24F78DA}">
   <dimension ref="B5:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:J17"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36758,7 +36907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4543C14-4642-4528-B35A-96BC53387948}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -45642,7 +45791,7 @@
         <v>0.125</v>
       </c>
       <c r="K46" s="33">
-        <f>IF(AND(C46&lt;$D$3,D46=0,MIN($C$45)),1,IF(AND(C46&gt;$D$3,D46=0),0,IF(((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46)&lt;0,0,IF((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46&gt;1,1,(NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46))))</f>
+        <f t="shared" ref="K46:K51" si="10">IF(AND(C46&lt;$D$3,D46=0,MIN($C$45)),1,IF(AND(C46&gt;$D$3,D46=0),0,IF(((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46)&lt;0,0,IF((NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46&gt;1,1,(NETWORKDAYS(C46,$D$3)-1+(HOUR($D$3)-HOUR(C46)-IF(AND(HOUR(C46)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C46))/(60*8))/D46))))</f>
         <v>0</v>
       </c>
       <c r="L46" s="1">
@@ -45700,7 +45849,7 @@
         <v>0.2</v>
       </c>
       <c r="K47" s="33">
-        <f>IF(AND(C47&lt;$D$3,D47=0,MIN($C$45)),1,IF(AND(C47&gt;$D$3,D47=0),0,IF(((NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47)&lt;0,0,IF((NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47&gt;1,1,(NETWORKDAYS(C47,$D$3)-1+(HOUR($D$3)-HOUR(C47)-IF(AND(HOUR(C47)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C47))/(60*8))/D47))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L47" s="1">
@@ -45758,7 +45907,7 @@
         <v>0.1</v>
       </c>
       <c r="K48" s="33">
-        <f>IF(AND(C48&lt;$D$3,D48=0,MIN($C$45)),1,IF(AND(C48&gt;$D$3,D48=0),0,IF(((NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48)&lt;0,0,IF((NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48&gt;1,1,(NETWORKDAYS(C48,$D$3)-1+(HOUR($D$3)-HOUR(C48)-IF(AND(HOUR(C48)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C48))/(60*8))/D48))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L48" s="1">
@@ -45816,7 +45965,7 @@
         <v>6.6699999999999995E-2</v>
       </c>
       <c r="K49" s="33">
-        <f>IF(AND(C49&lt;$D$3,D49=0,MIN($C$45)),1,IF(AND(C49&gt;$D$3,D49=0),0,IF(((NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49)&lt;0,0,IF((NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49&gt;1,1,(NETWORKDAYS(C49,$D$3)-1+(HOUR($D$3)-HOUR(C49)-IF(AND(HOUR(C49)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C49))/(60*8))/D49))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L49" s="1">
@@ -45873,7 +46022,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="33">
-        <f>IF(AND(C50&lt;$D$3,D50=0,MIN($C$45)),1,IF(AND(C50&gt;$D$3,D50=0),0,IF(((NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50)&lt;0,0,IF((NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50&gt;1,1,(NETWORKDAYS(C50,$D$3)-1+(HOUR($D$3)-HOUR(C50)-IF(AND(HOUR(C50)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C50))/(60*8))/D50))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L50" s="1">
@@ -45922,7 +46071,7 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="K51" s="33">
-        <f>IF(AND(C51&lt;$D$3,D51=0,MIN($C$45)),1,IF(AND(C51&gt;$D$3,D51=0),0,IF(((NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51)&lt;0,0,IF((NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51&gt;1,1,(NETWORKDAYS(C51,$D$3)-1+(HOUR($D$3)-HOUR(C51)-IF(AND(HOUR(C51)&lt;12.001,HOUR($D$3)&gt;12.999),1,0))/8+(MINUTE($D$3)-MINUTE(C51))/(60*8))/D51))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L51" s="1">
@@ -45961,18 +46110,18 @@
         <v>44519.388194444444</v>
       </c>
       <c r="F52" s="18">
-        <f t="shared" ref="F52" si="10">NETWORKDAYS(C52,$D$3)</f>
+        <f t="shared" ref="F52" si="11">NETWORKDAYS(C52,$D$3)</f>
         <v>-48</v>
       </c>
       <c r="G52" s="18" t="str">
-        <f t="shared" ref="G52" si="11">IF(F52&gt;D52,"Complete","Busy")</f>
+        <f t="shared" ref="G52" si="12">IF(F52&gt;D52,"Complete","Busy")</f>
         <v>Busy</v>
       </c>
       <c r="H52" s="17">
         <v>0</v>
       </c>
       <c r="I52" s="17">
-        <f t="shared" ref="I52" si="12">J52*H52</f>
+        <f t="shared" ref="I52" si="13">J52*H52</f>
         <v>0</v>
       </c>
       <c r="J52" s="17">
@@ -45989,7 +46138,7 @@
         <v>40</v>
       </c>
       <c r="N52" s="17">
-        <f t="shared" ref="N52" si="13">M52*K52</f>
+        <f t="shared" ref="N52" si="14">M52*K52</f>
         <v>0</v>
       </c>
     </row>
@@ -46188,18 +46337,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46379,18 +46528,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA3C3E4-7362-49E3-85D1-432ABD3BF726}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97440079-3730-432A-B1FC-864C0EBAE3CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97440079-3730-432A-B1FC-864C0EBAE3CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA3C3E4-7362-49E3-85D1-432ABD3BF726}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/EVA.xlsx
+++ b/EVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\source\repos\ProjMan412\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F865223C-3237-4200-B3C4-BB8CDCB05E57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE782A5F-E3E1-440D-8BED-1DEE42B32B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="29" r:id="rId1"/>
@@ -3006,7 +3006,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B43963B-6A52-4B33-822D-03086E67D26F}" type="CELLRANGE">
+                    <a:fld id="{4706DA7F-DBFD-4A8A-A866-C519A0AF7728}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3040,7 +3040,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F66778DC-F94A-4473-9BA3-AAA38E23B742}" type="CELLRANGE">
+                    <a:fld id="{2BCCD3C6-2C9E-432F-8BA7-0A5107516C1F}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3074,7 +3074,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F63D42AE-97EA-4884-9536-E628ACE9037F}" type="CELLRANGE">
+                    <a:fld id="{6327DA69-55E8-405F-AAA4-11285D11B632}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3108,7 +3108,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{961D0134-604F-49BB-8B1C-C17619C1E0CD}" type="CELLRANGE">
+                    <a:fld id="{52B0813E-EF57-4FBC-8775-DC33EBBBDCDD}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3142,7 +3142,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FABF3BC-8933-4DCF-A50F-2FD11825BBDC}" type="CELLRANGE">
+                    <a:fld id="{1283DE72-8DB0-42D8-915F-882106E27843}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3176,7 +3176,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3ADF24BB-545F-4F17-8F57-ACCD89939B8F}" type="CELLRANGE">
+                    <a:fld id="{5876471D-A470-4616-89E4-DF72B1D16DB7}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3210,7 +3210,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B40F105-214C-4F0E-81FE-E308B2F094F4}" type="CELLRANGE">
+                    <a:fld id="{BD4334EC-E509-4ECE-98D8-438C8FE87B6C}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3244,7 +3244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0191AE32-493F-4D0F-B711-D38BAB31FDA1}" type="CELLRANGE">
+                    <a:fld id="{68497FED-6C21-442B-AC2B-2F938107035C}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3899,7 +3899,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EEC5A2A-50D0-4A86-AC65-BF04F4D50501}" type="CELLRANGE">
+                    <a:fld id="{D6CA8EA2-CA02-4BC1-90F5-D6379920932B}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3933,7 +3933,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3C629D3-78DD-4741-9716-66EE02A54DA2}" type="CELLRANGE">
+                    <a:fld id="{970187B3-39A1-4684-AFDC-9AADC8D12B57}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3967,7 +3967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EB58AC8-520A-4FBC-A06F-5E930D3B09DC}" type="CELLRANGE">
+                    <a:fld id="{6D80F6E6-F8A5-4DE5-8C8C-B83203627F7E}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4001,7 +4001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A1DE4EC-F5CC-48C6-B300-DC66BF2C7921}" type="CELLRANGE">
+                    <a:fld id="{AE13052B-B2AF-435D-BA63-2452E0ADD00B}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4035,7 +4035,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DEC0AA7-F723-4D00-A12B-8D2BAD8DDC72}" type="CELLRANGE">
+                    <a:fld id="{1E7CD0E6-027B-4C55-9A59-7AF14CAA5B93}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4069,7 +4069,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B4E74B4-9A36-46BA-9793-EFA2DB915F8C}" type="CELLRANGE">
+                    <a:fld id="{C1237F56-45C4-4C45-9C44-FDF1F5CC369D}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4103,7 +4103,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8ACBC5D-D49F-484D-8D72-0B0C13A834D4}" type="CELLRANGE">
+                    <a:fld id="{942D0625-36CB-4482-83AC-D8C23209D34C}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4137,7 +4137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B24AA96F-272B-4D52-9D59-D9FFD254B535}" type="CELLRANGE">
+                    <a:fld id="{ABABE8ED-3460-4B21-8B5B-9B06C6EF6B29}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4685,7 +4685,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-ZA"/>
-              <a:t>Actual Value versus Earned Value</a:t>
+              <a:t>Actual Cost versus Earned Value</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4804,7 +4804,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83952864-B558-40F6-A0EE-AB38D96ABCD0}" type="CELLRANGE">
+                    <a:fld id="{E3896551-386E-46AE-8045-173323C4200A}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4838,7 +4838,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCF1161F-CCF0-4CA9-98D2-0F84B0B94A2F}" type="CELLRANGE">
+                    <a:fld id="{C1F3B288-B7D8-4A6E-9576-E015E39C4F03}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4872,7 +4872,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37C6D457-578E-4EEC-B635-6C1EB30252C2}" type="CELLRANGE">
+                    <a:fld id="{E03468ED-A09B-4154-8367-C0D8064014FF}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4906,7 +4906,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC7E7C32-3893-4A8C-9484-58BCD6900CCD}" type="CELLRANGE">
+                    <a:fld id="{C5615E64-A37C-4A4A-A0D8-9D069766CCF1}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4940,7 +4940,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC6D9A30-8724-4FD1-AD43-4E5602B36F72}" type="CELLRANGE">
+                    <a:fld id="{2FBAA18A-D8CE-4DE4-9B80-B86326E9B9F3}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4974,7 +4974,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88F2FAAE-4B22-49CD-98EC-93A4AB3DEE70}" type="CELLRANGE">
+                    <a:fld id="{88F4CF35-1103-4303-B09A-7DF5E5921F8F}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5008,7 +5008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81A47224-2381-445E-9E74-FCA6193E9ACE}" type="CELLRANGE">
+                    <a:fld id="{045EB4A1-8A4F-4F0B-BA8E-194D186492F3}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5042,7 +5042,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F2516B9-79EE-416F-A086-1034CE860472}" type="CELLRANGE">
+                    <a:fld id="{16D1E223-BC21-4150-B9FC-7FB3760FEED3}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5675,7 +5675,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D8446F1-1066-48FD-90D9-60A403A70A8B}" type="CELLRANGE">
+                    <a:fld id="{C31BCCAA-8A4F-4D34-906C-83FEA1E0393F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5708,7 +5708,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62B9AC4A-3F9E-4DAF-8F86-C9F92AACDCB2}" type="CELLRANGE">
+                    <a:fld id="{56DB6DAF-9FF7-42E1-BAE2-7744279F47EC}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5742,7 +5742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A63A31C-3B29-4B0E-93D4-38B885F4C279}" type="CELLRANGE">
+                    <a:fld id="{D9EE3FED-4BC3-4F7C-9D93-D3DF8CBE6F44}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5776,7 +5776,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5AAA0F94-4390-4CE2-8F08-88D422987B43}" type="CELLRANGE">
+                    <a:fld id="{5B0F81D7-4A28-4DCE-8ADB-73460D335BB2}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5810,7 +5810,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8410F08-21C9-4B74-A2DB-CF9238CFD2AB}" type="CELLRANGE">
+                    <a:fld id="{844F2243-A1F8-4ED1-BE38-1BCC532F3F95}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5844,7 +5844,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6FBE62C-F3C4-49E6-A5C2-81017B038908}" type="CELLRANGE">
+                    <a:fld id="{39E98DE5-934F-46CA-9858-A6CB81A4D7C8}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5878,7 +5878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D570238F-28CB-4E8E-B1A9-4E4A869D6386}" type="CELLRANGE">
+                    <a:fld id="{BD1F9EFA-FB5F-498B-B648-D62EA13FB1D6}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5912,7 +5912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B9A8EB9-F81F-47D0-860D-7D3349DA8F50}" type="CELLRANGE">
+                    <a:fld id="{64F1965E-2550-43A0-B0CA-5A40772B9F7B}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5946,7 +5946,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{812D2F37-D34A-4279-8440-FAF56F47A014}" type="CELLRANGE">
+                    <a:fld id="{ADAEE624-41C9-4CC6-AE17-E80270A07FC5}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5980,7 +5980,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B41BA14A-B760-448B-9B2B-2E5643620482}" type="CELLRANGE">
+                    <a:fld id="{714F339B-D404-4E70-9A5F-D20391A8CCFE}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6014,7 +6014,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3217070-D214-4BD2-9591-0CE1142DAE4E}" type="CELLRANGE">
+                    <a:fld id="{22179231-D682-434C-81B8-3332A3B0FA86}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6048,7 +6048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{128EBB02-4BD5-42EB-B39A-B6363E454640}" type="CELLRANGE">
+                    <a:fld id="{BEDF1EBB-974B-45FC-A728-FCE3EE32B496}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6697,7 +6697,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36D92E31-E0F7-4F0F-95B1-5A9FA08D9D2E}" type="CELLRANGE">
+                    <a:fld id="{E316DA91-C777-451E-AE13-DDFCB73AB40F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6730,7 +6730,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05079D7E-40AF-47FC-9F9F-95EAE9810BD8}" type="CELLRANGE">
+                    <a:fld id="{BA32F3F3-8E9B-4617-BE0A-B9BCC01A0EFE}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6764,7 +6764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7147411D-A4CD-4C03-A60F-7B9F504607CA}" type="CELLRANGE">
+                    <a:fld id="{11D77566-8122-40F3-9E95-C9548C241330}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6798,7 +6798,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{900398BC-DBDF-4761-B86F-B0668ECB98B3}" type="CELLRANGE">
+                    <a:fld id="{CF9170C8-F1A0-4F99-9228-4372606D6195}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6832,7 +6832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FBCDA86-4537-4C8A-A7F5-D46672E7955D}" type="CELLRANGE">
+                    <a:fld id="{BCA31101-9964-43D2-9046-A0F2809C2833}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6866,7 +6866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5F7F43D-5F14-4944-AA0D-2E351A09C6B3}" type="CELLRANGE">
+                    <a:fld id="{905F619C-5F97-4A4F-A883-AD34D5B60CAB}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6900,7 +6900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{872F4890-A95B-4623-B12A-C7E7A4966313}" type="CELLRANGE">
+                    <a:fld id="{99E91BBA-738F-43E6-9994-2206DE10EB76}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6934,7 +6934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F360457E-4FAF-43C5-9B2B-82912B324E65}" type="CELLRANGE">
+                    <a:fld id="{C3A2277E-78CF-4150-AF15-112EB401C26E}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6968,7 +6968,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F01D3283-409A-48C3-983B-9E41BF02A3F5}" type="CELLRANGE">
+                    <a:fld id="{E95F822D-5E92-4407-A3B1-02EE3DC3095F}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7002,7 +7002,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD863B72-6B09-4B63-89BC-E1ACE41A3E21}" type="CELLRANGE">
+                    <a:fld id="{01EE0FAB-58CE-4206-8F80-2C34711CAB65}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7036,7 +7036,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9C6C802-FE54-4730-BDF1-13CCA768443C}" type="CELLRANGE">
+                    <a:fld id="{6DBF73F6-3B57-42FF-8E49-300DA6C83085}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7070,7 +7070,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB8EEB96-BC29-4B78-B20C-30599ADF46F8}" type="CELLRANGE">
+                    <a:fld id="{3D63F27C-CA51-48A4-A33C-9549744AF4C2}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7663,7 +7663,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-ZA"/>
-              <a:t>Actual Value versus Earned Value</a:t>
+              <a:t>Actual Cost versus Earned Value</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7749,7 +7749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B17F9836-C69E-4B56-B5B4-BE478F267B0C}" type="CELLRANGE">
+                    <a:fld id="{2381C7DD-426E-4ABF-A36F-9ABF05FCA19E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7782,7 +7782,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9357FEAE-88C4-46DE-9117-17FE2F12C5B6}" type="CELLRANGE">
+                    <a:fld id="{8389E715-BF55-42B6-B5DB-151C99396913}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7816,7 +7816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14668357-1F27-4B37-8144-EFB0B8458B4C}" type="CELLRANGE">
+                    <a:fld id="{BB5B627A-99CE-481A-AECB-8A8688263B67}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7850,7 +7850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E067757-1B68-4C31-8039-716FDD130D88}" type="CELLRANGE">
+                    <a:fld id="{B25F8F3A-5CB2-413D-A0F0-E9CADEDE084F}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7884,7 +7884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC22E421-6517-48F1-B5DF-A7C12BE5C472}" type="CELLRANGE">
+                    <a:fld id="{54691FDA-5AA1-471B-8F95-0042E1C3AAD5}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7918,7 +7918,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC10DA27-6E62-4FA7-B07E-A496470CD361}" type="CELLRANGE">
+                    <a:fld id="{5CFA8E80-4BCE-4389-9BCD-6EDA595188F6}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7952,7 +7952,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF3B7546-7E86-4041-9201-1A2A0988C45C}" type="CELLRANGE">
+                    <a:fld id="{6B65CEA6-6626-4A99-BE3D-BA4E95D729C5}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7986,7 +7986,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38930A18-4FF6-44E5-ADBD-0F6BEB23F344}" type="CELLRANGE">
+                    <a:fld id="{0443B28E-0748-4207-9A0E-261D81BD5144}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8020,7 +8020,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5ADDE270-AEAD-43A0-A505-C82469B8FEB3}" type="CELLRANGE">
+                    <a:fld id="{E419E129-9274-4AFF-A9EA-E0EDD79BDACF}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8054,7 +8054,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C94889A6-37E7-4EF4-A849-28C18D216692}" type="CELLRANGE">
+                    <a:fld id="{801C73CB-46DD-441B-A3C8-71BFE9028A48}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8088,7 +8088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B61E080-261E-4F0B-A1EA-21341593E61A}" type="CELLRANGE">
+                    <a:fld id="{FAEBB580-FFAF-4A7C-AA85-4D1C1DC89336}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8122,7 +8122,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EDB482E-281C-46BF-9FBF-AAFA95948F97}" type="CELLRANGE">
+                    <a:fld id="{E21E26C6-3A12-46F4-94A1-CEE3E56B0817}" type="CELLRANGE">
                       <a:rPr lang="en-ZA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14704,8 +14704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD58B04A-94AF-4785-81D0-8D494DD97AB4}">
   <dimension ref="B1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36162,8 +36162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C264E-EB05-45C7-8F10-4283D24F78DA}">
   <dimension ref="B5:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36665,7 +36665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2993B63B-6FE6-4456-9CDF-05B556F98015}">
   <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -46337,18 +46337,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46528,18 +46528,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97440079-3730-432A-B1FC-864C0EBAE3CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA3C3E4-7362-49E3-85D1-432ABD3BF726}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA3C3E4-7362-49E3-85D1-432ABD3BF726}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97440079-3730-432A-B1FC-864C0EBAE3CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
